--- a/target/classes/companies/communications/Comcast/CMCA_Comcast.xlsx
+++ b/target/classes/companies/communications/Comcast/CMCA_Comcast.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73AE8CE-1F60-4B8B-A5CA-5AD21C701239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D2C41D-A74C-45FB-8ED9-E98810C63079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="165">
   <si>
     <t>WACC</t>
   </si>
@@ -497,6 +497,15 @@
   </si>
   <si>
     <t>EPS Growth esitmation (%)</t>
+  </si>
+  <si>
+    <t>CE_Celanese</t>
+  </si>
+  <si>
+    <t>sector median (19.16)</t>
+  </si>
+  <si>
+    <t>sector median (14.4)</t>
   </si>
   <si>
     <t>Long Term Debt</t>
@@ -1244,7 +1253,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1354,7 +1363,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="12" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1363,7 +1372,7 @@
     <xf numFmtId="2" fontId="5" fillId="3" borderId="5" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1378,11 +1387,11 @@
     <xf numFmtId="166" fontId="16" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1404,18 +1413,18 @@
     <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1424,7 +1433,7 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1746,34 +1755,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.10541782018961597</c:v>
+                  <c:v>0.16912442396313365</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12184660123591422</c:v>
+                  <c:v>9.1737724198765067E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10955576432693598</c:v>
+                  <c:v>5.3577722946774764E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10748612762584225</c:v>
+                  <c:v>0.16700686583781776</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26737936468734197</c:v>
+                  <c:v>0.13729641693811076</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12412837144338515</c:v>
+                  <c:v>0.16869322152341021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11985276569183602</c:v>
+                  <c:v>0.13530252501191042</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10171488161909543</c:v>
+                  <c:v>0.35101679929266139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12165657086394295</c:v>
+                  <c:v>0.22138924680801217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4224101723669362E-2</c:v>
+                  <c:v>0.1958027499224646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1911,34 +1920,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.33150316284393028</c:v>
+                  <c:v>0.28064516129032258</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33330425299890948</c:v>
+                  <c:v>0.15524845633637166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33120386525298617</c:v>
+                  <c:v>0.1214310891787099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32522047166072138</c:v>
+                  <c:v>0.22805715346075339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32584177163085537</c:v>
+                  <c:v>0.19006514657980456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31410371718497043</c:v>
+                  <c:v>0.23522012578616353</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31280865047456446</c:v>
+                  <c:v>0.18897887883118947</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.29540187710015064</c:v>
+                  <c:v>0.18037135278514588</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29746960518967219</c:v>
+                  <c:v>0.2722267775565187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2294547341200886</c:v>
+                  <c:v>0.19187428925876149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2076,34 +2085,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.7538858901588384E-2</c:v>
+                  <c:v>5.9139784946236562E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13786986550345329</c:v>
+                  <c:v>4.1752425757130257E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14505435512011811</c:v>
+                  <c:v>6.0274938315121609E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12517340467697186</c:v>
+                  <c:v>0.12005938021896456</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13197850145244563</c:v>
+                  <c:v>8.7296416938110744E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14880379231168062</c:v>
+                  <c:v>0.17064989517819706</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13427328303133779</c:v>
+                  <c:v>0.17214546609496587</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13576146151172222</c:v>
+                  <c:v>0.17312113174182139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16321690939554065</c:v>
+                  <c:v>0.15110694623404006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.12729458851820435</c:v>
+                  <c:v>0.13191357386539854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2634,34 +2643,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>21.649999618530273</c:v>
+                  <c:v>17.280000686645508</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.239999771118164</c:v>
+                  <c:v>6.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.690000534057617</c:v>
+                  <c:v>19.739999771118164</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.25</c:v>
+                  <c:v>25.079999923706055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.209999084472656</c:v>
+                  <c:v>18.399999618530273</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6500000953674316</c:v>
+                  <c:v>9.2899999618530273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.659999847412109</c:v>
+                  <c:v>16.959999084472656</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.5</c:v>
+                  <c:v>26.139999389648438</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.180000305175781</c:v>
+                  <c:v>6.8400001525878906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.639999389648438</c:v>
+                  <c:v>6.7399997711181641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2848,34 +2857,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.0900001525878906</c:v>
+                  <c:v>13.220000267028809</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.340000152587891</c:v>
+                  <c:v>9.8900003433227539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7800002098083496</c:v>
+                  <c:v>11.619999885559082</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1800003051757813</c:v>
+                  <c:v>10.770000457763672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0799999237060547</c:v>
+                  <c:v>21.469999313354492</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6100001335144043</c:v>
+                  <c:v>9.7899999618530273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.1999998092651367</c:v>
+                  <c:v>10.529999732971191</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.3299999237060547</c:v>
+                  <c:v>11.140000343322754</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.8599996566772461</c:v>
+                  <c:v>13.199999809265137</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.5900001525878906</c:v>
+                  <c:v>6.0100002288818359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3303,34 +3312,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.2799999713897705</c:v>
+                  <c:v>6.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6000000238418579</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6200000047683716</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7799999713897705</c:v>
+                  <c:v>6.179999828338623</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.75</c:v>
+                  <c:v>6.0900001525878906</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5299999713897705</c:v>
+                  <c:v>8.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8299999237060547</c:v>
+                  <c:v>6.8400001525878906</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2799999713897705</c:v>
+                  <c:v>16.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0399999618530273</c:v>
+                  <c:v>16.860000610351563</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2100000381469727</c:v>
+                  <c:v>17.340000152587891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3758,34 +3767,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>64657</c:v>
+                  <c:v>6510</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68775</c:v>
+                  <c:v>6802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74510</c:v>
+                  <c:v>5674</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80736</c:v>
+                  <c:v>5389</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85029</c:v>
+                  <c:v>6140</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94507</c:v>
+                  <c:v>7155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>108942</c:v>
+                  <c:v>6297</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>103564</c:v>
+                  <c:v>5655</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>116385</c:v>
+                  <c:v>8537</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>121427</c:v>
+                  <c:v>9673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4192,34 +4201,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>44567</c:v>
+                  <c:v>2887</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43864</c:v>
+                  <c:v>2586</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48994</c:v>
+                  <c:v>2468</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55566</c:v>
+                  <c:v>2890</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59422</c:v>
+                  <c:v>3315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>107345</c:v>
+                  <c:v>2970</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>102931</c:v>
+                  <c:v>3409</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>105782</c:v>
+                  <c:v>3227</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>97888</c:v>
+                  <c:v>3176</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>98240</c:v>
+                  <c:v>13373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4329,34 +4338,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>21434</c:v>
+                  <c:v>1827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22923</c:v>
+                  <c:v>1056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24678</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26257</c:v>
+                  <c:v>1229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27706</c:v>
+                  <c:v>1167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29685</c:v>
+                  <c:v>1683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34078</c:v>
+                  <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30593</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34621</c:v>
+                  <c:v>2324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27862</c:v>
+                  <c:v>1856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4452,34 +4461,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.0792665857982646</c:v>
+                  <c:v>1.5801860974274768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9135366226061161</c:v>
+                  <c:v>2.4488636363636362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9853310641056812</c:v>
+                  <c:v>3.5820029027576199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1162356704878698</c:v>
+                  <c:v>2.3515052888527257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.144733992636974</c:v>
+                  <c:v>2.8406169665809768</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6161360956712145</c:v>
+                  <c:v>1.7647058823529411</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0204530782322907</c:v>
+                  <c:v>2.8647058823529412</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4577190860654397</c:v>
+                  <c:v>3.1637254901960783</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8274168857052078</c:v>
+                  <c:v>1.3666092943201378</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5259493216567366</c:v>
+                  <c:v>7.2052801724137927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4948,34 +4957,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5660</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9482</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10808</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10106</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11222</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14063</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14628</c:v>
+                  <c:v>1084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14060</c:v>
+                  <c:v>979</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18996</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15457</c:v>
+                  <c:v>1276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5085,34 +5094,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1964</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2254</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2437</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2601</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2883</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3352</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3735</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4140</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4532</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4741</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5224,34 +5233,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.34699646643109539</c:v>
+                  <c:v>0.21558441558441557</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23771356253954862</c:v>
+                  <c:v>0.50704225352112675</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22548112509252405</c:v>
+                  <c:v>0.50877192982456143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25737185830199882</c:v>
+                  <c:v>0.31066460587326122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25690607734806631</c:v>
+                  <c:v>0.44962686567164178</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23835596956552657</c:v>
+                  <c:v>0.22932022932022933</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25533223954060708</c:v>
+                  <c:v>0.2767527675276753</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.29445234708392604</c:v>
+                  <c:v>0.2992849846782431</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23857654242998527</c:v>
+                  <c:v>0.23565891472868217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.30672187358478359</c:v>
+                  <c:v>0.23275862068965517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5744,34 +5753,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>144738</c:v>
+                  <c:v>5836</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>145655</c:v>
+                  <c:v>6098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>154271</c:v>
+                  <c:v>5799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>164139</c:v>
+                  <c:v>5885</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>171119</c:v>
+                  <c:v>6746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>229836</c:v>
+                  <c:v>6439</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>238022</c:v>
+                  <c:v>6711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>247128</c:v>
+                  <c:v>7146</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>251098</c:v>
+                  <c:v>8168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>235449</c:v>
+                  <c:v>19661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5881,34 +5890,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>14075</c:v>
+                  <c:v>3182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13531</c:v>
+                  <c:v>2698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12303</c:v>
+                  <c:v>2787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16361</c:v>
+                  <c:v>2472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16343</c:v>
+                  <c:v>2792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21848</c:v>
+                  <c:v>2874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25392</c:v>
+                  <c:v>2765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26741</c:v>
+                  <c:v>3763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24807</c:v>
+                  <c:v>3807</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21826</c:v>
+                  <c:v>6611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6310,34 +6319,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>18912</c:v>
+                  <c:v>1545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17410</c:v>
+                  <c:v>1338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18178</c:v>
+                  <c:v>1550</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21535</c:v>
+                  <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21993</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27603</c:v>
+                  <c:v>1779</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30292</c:v>
+                  <c:v>1754</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28796</c:v>
+                  <c:v>1973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29348</c:v>
+                  <c:v>2505</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27887</c:v>
+                  <c:v>4068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6447,34 +6456,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>88843</c:v>
+                  <c:v>4774</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88708</c:v>
+                  <c:v>4380</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94418</c:v>
+                  <c:v>4207</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102791</c:v>
+                  <c:v>4259</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96010</c:v>
+                  <c:v>4680</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>151579</c:v>
+                  <c:v>4155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>149248</c:v>
+                  <c:v>4824</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>153335</c:v>
+                  <c:v>5041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>149068</c:v>
+                  <c:v>4933</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>147760</c:v>
+                  <c:v>16099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6876,34 +6885,34 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>51058</c:v>
+                  <c:v>2699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53068</c:v>
+                  <c:v>3078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53978</c:v>
+                  <c:v>2829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56174</c:v>
+                  <c:v>3021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69459</c:v>
+                  <c:v>3299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72502</c:v>
+                  <c:v>3379</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>83874</c:v>
+                  <c:v>2898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91738</c:v>
+                  <c:v>3895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>97489</c:v>
+                  <c:v>4537</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>81628</c:v>
+                  <c:v>6105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6993,34 +7002,34 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>107755</c:v>
+                  <c:v>6319</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>106118</c:v>
+                  <c:v>5718</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>112596</c:v>
+                  <c:v>5757</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>124326</c:v>
+                  <c:v>5336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>118003</c:v>
+                  <c:v>6239</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>179182</c:v>
+                  <c:v>5934</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>179540</c:v>
+                  <c:v>6578</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>182131</c:v>
+                  <c:v>7014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>178416</c:v>
+                  <c:v>7438</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>175647</c:v>
+                  <c:v>20167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7132,34 +7141,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.1104430255787534</c:v>
+                  <c:v>2.341237495368655</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9996608125423985</c:v>
+                  <c:v>1.8576998050682261</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0859609470525027</c:v>
+                  <c:v>2.0349946977730649</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2132303200769039</c:v>
+                  <c:v>1.7663025488248925</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6988871132610606</c:v>
+                  <c:v>1.8911791451955138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4714076853052331</c:v>
+                  <c:v>1.7561408700799053</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1405918401411643</c:v>
+                  <c:v>2.2698412698412698</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.98533868189845</c:v>
+                  <c:v>1.8007702182284981</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.8301141667265024</c:v>
+                  <c:v>1.6394093013004187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1517984025089429</c:v>
+                  <c:v>3.3033579033579032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7595,34 +7604,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>14075</c:v>
+                  <c:v>3182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13531</c:v>
+                  <c:v>2698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12303</c:v>
+                  <c:v>2787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16361</c:v>
+                  <c:v>2472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16343</c:v>
+                  <c:v>2792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21848</c:v>
+                  <c:v>2874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25392</c:v>
+                  <c:v>2765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26741</c:v>
+                  <c:v>3763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24807</c:v>
+                  <c:v>3807</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21826</c:v>
+                  <c:v>6611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7712,34 +7721,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>18912</c:v>
+                  <c:v>1545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17410</c:v>
+                  <c:v>1338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18178</c:v>
+                  <c:v>1550</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21535</c:v>
+                  <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21993</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27603</c:v>
+                  <c:v>1779</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30292</c:v>
+                  <c:v>1754</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28796</c:v>
+                  <c:v>1973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29348</c:v>
+                  <c:v>2505</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27887</c:v>
+                  <c:v>4068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7890,34 +7899,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.74423646362098139</c:v>
+                  <c:v>2.0595469255663432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77719701321079837</c:v>
+                  <c:v>2.0164424514200299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.67680712949719446</c:v>
+                  <c:v>1.7980645161290323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75973995820756912</c:v>
+                  <c:v>2.2952646239554317</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.74310007729732186</c:v>
+                  <c:v>1.790891597177678</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.79150816940187663</c:v>
+                  <c:v>1.615514333895447</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.83824111976759541</c:v>
+                  <c:v>1.5763968072976056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92863592165578557</c:v>
+                  <c:v>1.9072478459199189</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.84527054654490941</c:v>
+                  <c:v>1.5197604790419161</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.78265858643812525</c:v>
+                  <c:v>1.6251229105211407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8470,34 +8479,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>21434</c:v>
+                  <c:v>1827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22923</c:v>
+                  <c:v>1056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24678</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26257</c:v>
+                  <c:v>1229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27706</c:v>
+                  <c:v>1167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29685</c:v>
+                  <c:v>1683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34078</c:v>
+                  <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30593</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34621</c:v>
+                  <c:v>2324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27862</c:v>
+                  <c:v>1856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8663,34 +8672,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6816</c:v>
+                  <c:v>1101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8380</c:v>
+                  <c:v>624</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8163</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8678</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22735</c:v>
+                  <c:v>843</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11731</c:v>
+                  <c:v>1207</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13057</c:v>
+                  <c:v>852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10534</c:v>
+                  <c:v>1985</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14159</c:v>
+                  <c:v>1890</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5370</c:v>
+                  <c:v>1894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8859,34 +8868,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5660</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9482</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10808</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10106</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11222</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14063</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14628</c:v>
+                  <c:v>1084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14060</c:v>
+                  <c:v>979</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18996</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15457</c:v>
+                  <c:v>1276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9299,34 +9308,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.2918400886577297</c:v>
+                  <c:v>12.208915502328676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2642820348523109</c:v>
+                  <c:v>7.094133697135061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9005246917286014</c:v>
+                  <c:v>3.5406475658047984</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8077562326869803</c:v>
+                  <c:v>10.769414861792509</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.127791232356424</c:v>
+                  <c:v>8.8383308869784027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6610034805549816</c:v>
+                  <c:v>12.960377966283689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9568360071977953</c:v>
+                  <c:v>8.99113550021106</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8463645027367099</c:v>
+                  <c:v>18.195984966541388</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.1318388575777893</c:v>
+                  <c:v>15.782881002087683</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0872607132445826</c:v>
+                  <c:v>7.2091961023142508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9463,34 +9472,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13.349524070664733</c:v>
+                  <c:v>40.792886254168209</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.791060526117434</c:v>
+                  <c:v>20.2729044834308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.122827818740969</c:v>
+                  <c:v>10.745846588900672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.448428098408517</c:v>
+                  <c:v>29.791459781529294</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.731539469327231</c:v>
+                  <c:v>25.553197938769323</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.180243303633002</c:v>
+                  <c:v>35.720627404557561</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.567398717123304</c:v>
+                  <c:v>29.399585921325052</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.482700734700996</c:v>
+                  <c:v>50.96277278562259</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.523689852188452</c:v>
+                  <c:v>41.657482918227906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.5786249816239524</c:v>
+                  <c:v>31.023751023751025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9627,34 +9636,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.9899997711181641</c:v>
+                  <c:v>22.989999771118164</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.210000038146973</c:v>
+                  <c:v>12.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5799999237060547</c:v>
+                  <c:v>6.8600001335144043</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5900001525878906</c:v>
+                  <c:v>18.329999923706055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.969999313354492</c:v>
+                  <c:v>15.489999771118164</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.1499996185302734</c:v>
+                  <c:v>19.989999771118164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.0299997329711914</c:v>
+                  <c:v>14.409999847412109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.4000000953674316</c:v>
+                  <c:v>29.430000305175781</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.9700002670288086</c:v>
+                  <c:v>24.680000305175781</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1999998092651367</c:v>
+                  <c:v>14.380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10110,34 +10119,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5330</c:v>
+                  <c:v>159.33399963378906</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5240</c:v>
+                  <c:v>156.16700744628906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5035</c:v>
+                  <c:v>152.28799438476563</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4875</c:v>
+                  <c:v>145.66799926757813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4786</c:v>
+                  <c:v>138.31700134277344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4640</c:v>
+                  <c:v>135.41700744628906</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4610</c:v>
+                  <c:v>124.65200042724609</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4624</c:v>
+                  <c:v>118.48100280761719</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4654</c:v>
+                  <c:v>112.08399963378906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4430</c:v>
+                  <c:v>109.23500061035156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18068,7 +18077,7 @@
                   <m:oMathParaPr>
                     <m:jc m:val="centerGroup"/>
                   </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMath>
                     <m:r>
                       <a:rPr lang="en-US" sz="2000" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -18162,7 +18171,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -18690,18 +18699,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.08984375" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" customWidth="1"/>
-    <col min="20" max="20" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.90625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.453125"/>
+    <col min="4" max="4" customWidth="true" width="7.08984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.1796875"/>
+    <col min="6" max="6" customWidth="true" width="19.54296875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="7.453125"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="15" thickBot="1"/>
     <row r="3" spans="2:22">
       <c r="B3" s="139" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C3" s="140"/>
       <c r="D3" s="140"/>
@@ -18855,47 +18864,47 @@
       <c r="E12" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="F12" s="123">
+      <c r="F12" s="123" t="n">
         <f>AVERAGE(L12:P12)</f>
-        <v>4.1366607122623718</v>
-      </c>
-      <c r="G12" s="119">
+        <v>4.136660712262372</v>
+      </c>
+      <c r="G12" s="119" t="n">
         <f>Financials!D76</f>
-        <v>4.2918400886577297</v>
-      </c>
-      <c r="H12" s="119">
+        <v>4.29184008865773</v>
+      </c>
+      <c r="H12" s="119" t="n">
         <f>Financials!E76</f>
-        <v>5.2642820348523109</v>
-      </c>
-      <c r="I12" s="119">
+        <v>5.264282034852311</v>
+      </c>
+      <c r="I12" s="119" t="n">
         <f>Financials!F76</f>
-        <v>4.9005246917286014</v>
-      </c>
-      <c r="J12" s="119">
+        <v>4.900524691728601</v>
+      </c>
+      <c r="J12" s="119" t="n">
         <f>Financials!G76</f>
-        <v>4.8077562326869803</v>
-      </c>
-      <c r="K12" s="119">
+        <v>4.80775623268698</v>
+      </c>
+      <c r="K12" s="119" t="n">
         <f>Financials!H76</f>
         <v>12.127791232356424</v>
       </c>
-      <c r="L12" s="119">
+      <c r="L12" s="119" t="n">
         <f>Financials!I76</f>
-        <v>4.6610034805549816</v>
-      </c>
-      <c r="M12" s="119">
+        <v>4.661003480554982</v>
+      </c>
+      <c r="M12" s="119" t="n">
         <f>Financials!J76</f>
-        <v>4.9568360071977953</v>
-      </c>
-      <c r="N12" s="119">
+        <v>4.956836007197795</v>
+      </c>
+      <c r="N12" s="119" t="n">
         <f>Financials!K76</f>
-        <v>3.8463645027367099</v>
-      </c>
-      <c r="O12" s="119">
+        <v>3.84636450273671</v>
+      </c>
+      <c r="O12" s="119" t="n">
         <f>Financials!L76</f>
-        <v>5.1318388575777893</v>
-      </c>
-      <c r="P12" s="119">
+        <v>5.131838857577789</v>
+      </c>
+      <c r="P12" s="119" t="n">
         <f>Financials!M76</f>
         <v>2.0872607132445826</v>
       </c>
@@ -18929,49 +18938,49 @@
       <c r="E14" s="46">
         <v>0.08</v>
       </c>
-      <c r="F14" s="124">
+      <c r="F14" s="124" t="n">
         <f>AVERAGE(L14:P14)</f>
-        <v>12.866531517853939</v>
-      </c>
-      <c r="G14" s="40">
+        <v>12.86653151785394</v>
+      </c>
+      <c r="G14" s="40" t="n">
         <f>Financials!D77</f>
         <v>13.349524070664733</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="40" t="n">
         <f>Financials!E77</f>
         <v>15.791060526117434</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="40" t="n">
         <f>Financials!F77</f>
-        <v>15.122827818740969</v>
-      </c>
-      <c r="J14" s="40">
+        <v>15.12282781874097</v>
+      </c>
+      <c r="J14" s="40" t="n">
         <f>Financials!G77</f>
         <v>15.448428098408517</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14" s="40" t="n">
         <f>Financials!H77</f>
-        <v>32.731539469327231</v>
-      </c>
-      <c r="L14" s="40">
+        <v>32.73153946932723</v>
+      </c>
+      <c r="L14" s="40" t="n">
         <f>Financials!I77</f>
         <v>16.180243303633002</v>
       </c>
-      <c r="M14" s="40">
+      <c r="M14" s="40" t="n">
         <f>Financials!J77</f>
         <v>15.567398717123304</v>
       </c>
-      <c r="N14" s="40">
+      <c r="N14" s="40" t="n">
         <f>Financials!K77</f>
         <v>11.482700734700996</v>
       </c>
-      <c r="O14" s="40">
+      <c r="O14" s="40" t="n">
         <f>Financials!L77</f>
         <v>14.523689852188452</v>
       </c>
-      <c r="P14" s="40">
+      <c r="P14" s="40" t="n">
         <f>Financials!M77</f>
-        <v>6.5786249816239524</v>
+        <v>6.578624981623952</v>
       </c>
       <c r="R14" s="44"/>
       <c r="S14" s="44"/>
@@ -19006,53 +19015,53 @@
         <f>T11</f>
         <v>J</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="47" t="n">
         <f>WACC!$C$25</f>
-        <v>6.8610102783180901E-2</v>
-      </c>
-      <c r="F16" s="124">
+        <v>0.0686101027831809</v>
+      </c>
+      <c r="F16" s="124" t="n">
         <f>AVERAGE(L16:P16)</f>
-        <v>7.7499999046325687</v>
-      </c>
-      <c r="G16" s="40">
+        <v>7.749999904632569</v>
+      </c>
+      <c r="G16" s="40" t="n">
         <f>Financials!D78</f>
-        <v>8.9899997711181641</v>
-      </c>
-      <c r="H16" s="40">
+        <v>8.989999771118164</v>
+      </c>
+      <c r="H16" s="40" t="n">
         <f>Financials!E78</f>
         <v>10.210000038146973</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="40" t="n">
         <f>Financials!F78</f>
-        <v>9.5799999237060547</v>
-      </c>
-      <c r="J16" s="40">
+        <v>9.579999923706055</v>
+      </c>
+      <c r="J16" s="40" t="n">
         <f>Financials!G78</f>
-        <v>9.5900001525878906</v>
-      </c>
-      <c r="K16" s="40">
+        <v>9.59000015258789</v>
+      </c>
+      <c r="K16" s="40" t="n">
         <f>Financials!H78</f>
         <v>19.969999313354492</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="40" t="n">
         <f>Financials!I78</f>
-        <v>9.1499996185302734</v>
-      </c>
-      <c r="M16" s="40">
+        <v>9.149999618530273</v>
+      </c>
+      <c r="M16" s="40" t="n">
         <f>Financials!J78</f>
-        <v>9.0299997329711914</v>
-      </c>
-      <c r="N16" s="40">
+        <v>9.029999732971191</v>
+      </c>
+      <c r="N16" s="40" t="n">
         <f>Financials!K78</f>
-        <v>7.4000000953674316</v>
-      </c>
-      <c r="O16" s="40">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="O16" s="40" t="n">
         <f>Financials!L78</f>
-        <v>8.9700002670288086</v>
-      </c>
-      <c r="P16" s="40">
+        <v>8.970000267028809</v>
+      </c>
+      <c r="P16" s="40" t="n">
         <f>Financials!M78</f>
-        <v>4.1999998092651367</v>
+        <v>4.199999809265137</v>
       </c>
       <c r="R16" s="44"/>
       <c r="S16" s="44"/>
@@ -19093,49 +19102,49 @@
       <c r="E18" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="125">
+      <c r="F18" s="125" t="n">
         <f>AVERAGE(L18:P18)</f>
-        <v>0.83726286876165845</v>
-      </c>
-      <c r="G18" s="42">
+        <v>0.8372628687616585</v>
+      </c>
+      <c r="G18" s="42" t="n">
         <f>Financials!D59</f>
-        <v>0.74423646362098139</v>
-      </c>
-      <c r="H18" s="42">
+        <v>0.7442364636209814</v>
+      </c>
+      <c r="H18" s="42" t="n">
         <f>Financials!E59</f>
-        <v>0.77719701321079837</v>
-      </c>
-      <c r="I18" s="42">
+        <v>0.7771970132107984</v>
+      </c>
+      <c r="I18" s="42" t="n">
         <f>Financials!F59</f>
-        <v>0.67680712949719446</v>
-      </c>
-      <c r="J18" s="42">
+        <v>0.6768071294971945</v>
+      </c>
+      <c r="J18" s="42" t="n">
         <f>Financials!G59</f>
-        <v>0.75973995820756912</v>
-      </c>
-      <c r="K18" s="42">
+        <v>0.7597399582075691</v>
+      </c>
+      <c r="K18" s="42" t="n">
         <f>Financials!H59</f>
-        <v>0.74310007729732186</v>
-      </c>
-      <c r="L18" s="42">
+        <v>0.7431000772973219</v>
+      </c>
+      <c r="L18" s="42" t="n">
         <f>Financials!I59</f>
-        <v>0.79150816940187663</v>
-      </c>
-      <c r="M18" s="42">
+        <v>0.7915081694018766</v>
+      </c>
+      <c r="M18" s="42" t="n">
         <f>Financials!J59</f>
-        <v>0.83824111976759541</v>
-      </c>
-      <c r="N18" s="42">
+        <v>0.8382411197675954</v>
+      </c>
+      <c r="N18" s="42" t="n">
         <f>Financials!K59</f>
-        <v>0.92863592165578557</v>
-      </c>
-      <c r="O18" s="42">
+        <v>0.9286359216557856</v>
+      </c>
+      <c r="O18" s="42" t="n">
         <f>Financials!L59</f>
-        <v>0.84527054654490941</v>
-      </c>
-      <c r="P18" s="42">
+        <v>0.8452705465449094</v>
+      </c>
+      <c r="P18" s="42" t="n">
         <f>Financials!M59</f>
-        <v>0.78265858643812525</v>
+        <v>0.7826585864381252</v>
       </c>
       <c r="Q18" s="44"/>
       <c r="R18" s="44"/>
@@ -19166,7 +19175,7 @@
     <row r="20" spans="2:20" ht="18.5">
       <c r="B20" s="152"/>
       <c r="C20" s="36" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D20" s="56" t="str">
         <f>V11</f>
@@ -19175,49 +19184,49 @@
       <c r="E20" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="125">
+      <c r="F20" s="125" t="n">
         <f>AVERAGE(L20:P20)</f>
         <v>2.1158501553160587</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="42" t="n">
         <f>Financials!D58</f>
         <v>2.1104430255787534</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="42" t="n">
         <f>Financials!E58</f>
         <v>1.9996608125423985</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="42" t="n">
         <f>Financials!F58</f>
         <v>2.0859609470525027</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="42" t="n">
         <f>Financials!G58</f>
-        <v>2.2132303200769039</v>
-      </c>
-      <c r="K20" s="42">
+        <v>2.213230320076904</v>
+      </c>
+      <c r="K20" s="42" t="n">
         <f>Financials!H58</f>
         <v>1.6988871132610606</v>
       </c>
-      <c r="L20" s="42">
+      <c r="L20" s="42" t="n">
         <f>Financials!I58</f>
-        <v>2.4714076853052331</v>
-      </c>
-      <c r="M20" s="42">
+        <v>2.471407685305233</v>
+      </c>
+      <c r="M20" s="42" t="n">
         <f>Financials!J58</f>
         <v>2.1405918401411643</v>
       </c>
-      <c r="N20" s="42">
+      <c r="N20" s="42" t="n">
         <f>Financials!K58</f>
         <v>1.98533868189845</v>
       </c>
-      <c r="O20" s="42">
+      <c r="O20" s="42" t="n">
         <f>Financials!L58</f>
         <v>1.8301141667265024</v>
       </c>
-      <c r="P20" s="42">
+      <c r="P20" s="42" t="n">
         <f>Financials!M58</f>
-        <v>2.1517984025089429</v>
+        <v>2.151798402508943</v>
       </c>
       <c r="Q20" s="44"/>
       <c r="R20" s="44"/>
@@ -19248,56 +19257,56 @@
     <row r="22" spans="2:20" ht="18.5">
       <c r="B22" s="132"/>
       <c r="C22" s="36" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D22" s="55" t="str">
         <f>U11</f>
         <v>K</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="F22" s="125">
+        <v>161</v>
+      </c>
+      <c r="F22" s="125" t="n">
         <f>AVERAGE(L22:P22)</f>
-        <v>3.2895348934661781</v>
-      </c>
-      <c r="G22" s="42">
+        <v>3.289534893466178</v>
+      </c>
+      <c r="G22" s="42" t="n">
         <f>Financials!D60</f>
         <v>2.0792665857982646</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="42" t="n">
         <f>Financials!E60</f>
         <v>1.9135366226061161</v>
       </c>
-      <c r="I22" s="42">
+      <c r="I22" s="42" t="n">
         <f>Financials!F60</f>
         <v>1.9853310641056812</v>
       </c>
-      <c r="J22" s="42">
+      <c r="J22" s="42" t="n">
         <f>Financials!G60</f>
         <v>2.1162356704878698</v>
       </c>
-      <c r="K22" s="42">
+      <c r="K22" s="42" t="n">
         <f>Financials!H60</f>
         <v>2.144733992636974</v>
       </c>
-      <c r="L22" s="42">
+      <c r="L22" s="42" t="n">
         <f>Financials!I60</f>
         <v>3.6161360956712145</v>
       </c>
-      <c r="M22" s="42">
+      <c r="M22" s="42" t="n">
         <f>Financials!J60</f>
         <v>3.0204530782322907</v>
       </c>
-      <c r="N22" s="42">
+      <c r="N22" s="42" t="n">
         <f>Financials!K60</f>
         <v>3.4577190860654397</v>
       </c>
-      <c r="O22" s="42">
+      <c r="O22" s="42" t="n">
         <f>Financials!L60</f>
         <v>2.8274168857052078</v>
       </c>
-      <c r="P22" s="42">
+      <c r="P22" s="42" t="n">
         <f>Financials!M60</f>
         <v>3.5259493216567366</v>
       </c>
@@ -19342,45 +19351,45 @@
         <v>69</v>
       </c>
       <c r="F24" s="50"/>
-      <c r="G24" s="40">
+      <c r="G24" s="40" t="n">
         <f>Financials!D12</f>
-        <v>5330</v>
-      </c>
-      <c r="H24" s="40">
+        <v>5330.0</v>
+      </c>
+      <c r="H24" s="40" t="n">
         <f>Financials!E12</f>
-        <v>5240</v>
-      </c>
-      <c r="I24" s="40">
+        <v>5240.0</v>
+      </c>
+      <c r="I24" s="40" t="n">
         <f>Financials!F12</f>
-        <v>5035</v>
-      </c>
-      <c r="J24" s="40">
+        <v>5035.0</v>
+      </c>
+      <c r="J24" s="40" t="n">
         <f>Financials!G12</f>
-        <v>4875</v>
-      </c>
-      <c r="K24" s="40">
+        <v>4875.0</v>
+      </c>
+      <c r="K24" s="40" t="n">
         <f>Financials!H12</f>
-        <v>4786</v>
-      </c>
-      <c r="L24" s="40">
+        <v>4786.0</v>
+      </c>
+      <c r="L24" s="40" t="n">
         <f>Financials!I12</f>
-        <v>4640</v>
-      </c>
-      <c r="M24" s="40">
+        <v>4640.0</v>
+      </c>
+      <c r="M24" s="40" t="n">
         <f>Financials!J12</f>
-        <v>4610</v>
-      </c>
-      <c r="N24" s="40">
+        <v>4610.0</v>
+      </c>
+      <c r="N24" s="40" t="n">
         <f>Financials!K12</f>
-        <v>4624</v>
-      </c>
-      <c r="O24" s="40">
+        <v>4624.0</v>
+      </c>
+      <c r="O24" s="40" t="n">
         <f>Financials!L12</f>
-        <v>4654</v>
-      </c>
-      <c r="P24" s="40">
+        <v>4654.0</v>
+      </c>
+      <c r="P24" s="40" t="n">
         <f>Financials!M12</f>
-        <v>4430</v>
+        <v>4430.0</v>
       </c>
       <c r="Q24" s="44"/>
       <c r="R24" s="44"/>
@@ -19420,49 +19429,49 @@
         <v>J</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" s="57">
+        <v>163</v>
+      </c>
+      <c r="F26" s="57" t="n">
         <f>AVERAGEIF(L26:P26,"&lt;100")</f>
-        <v>18.525999927520751</v>
-      </c>
-      <c r="G26" s="44">
+        <v>18.52599992752075</v>
+      </c>
+      <c r="G26" s="44" t="n">
         <f>Financials!D81</f>
         <v>21.649999618530273</v>
       </c>
-      <c r="H26" s="44">
+      <c r="H26" s="44" t="n">
         <f>Financials!E81</f>
         <v>18.239999771118164</v>
       </c>
-      <c r="I26" s="44">
+      <c r="I26" s="44" t="n">
         <f>Financials!F81</f>
         <v>17.690000534057617</v>
       </c>
-      <c r="J26" s="44">
+      <c r="J26" s="44" t="n">
         <f>Financials!G81</f>
         <v>20.25</v>
       </c>
-      <c r="K26" s="44">
+      <c r="K26" s="44" t="n">
         <f>Financials!H81</f>
         <v>19.209999084472656</v>
       </c>
-      <c r="L26" s="44">
+      <c r="L26" s="44" t="n">
         <f>Financials!I81</f>
-        <v>6.6500000953674316</v>
-      </c>
-      <c r="M26" s="44">
+        <v>6.650000095367432</v>
+      </c>
+      <c r="M26" s="44" t="n">
         <f>Financials!J81</f>
-        <v>16.659999847412109</v>
-      </c>
-      <c r="N26" s="44">
+        <v>16.65999984741211</v>
+      </c>
+      <c r="N26" s="44" t="n">
         <f>Financials!K81</f>
         <v>23.5</v>
       </c>
-      <c r="O26" s="44">
+      <c r="O26" s="44" t="n">
         <f>Financials!L81</f>
-        <v>16.180000305175781</v>
-      </c>
-      <c r="P26" s="44">
+        <v>16.18000030517578</v>
+      </c>
+      <c r="P26" s="44" t="n">
         <f>Financials!M81</f>
         <v>29.639999389648438</v>
       </c>
@@ -19502,51 +19511,51 @@
         <v>J</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="F28" s="57">
+        <v>164</v>
+      </c>
+      <c r="F28" s="57" t="n">
         <f>AVERAGEIF(L28:P28, "&lt;100")</f>
         <v>7.7179999351501465</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="44" t="n">
         <f>Financials!D82</f>
-        <v>9.0900001525878906</v>
-      </c>
-      <c r="H28" s="44">
+        <v>9.09000015258789</v>
+      </c>
+      <c r="H28" s="44" t="n">
         <f>Financials!E82</f>
-        <v>10.340000152587891</v>
-      </c>
-      <c r="I28" s="44">
+        <v>10.34000015258789</v>
+      </c>
+      <c r="I28" s="44" t="n">
         <f>Financials!F82</f>
-        <v>7.7800002098083496</v>
-      </c>
-      <c r="J28" s="44">
+        <v>7.78000020980835</v>
+      </c>
+      <c r="J28" s="44" t="n">
         <f>Financials!G82</f>
-        <v>9.1800003051757813</v>
-      </c>
-      <c r="K28" s="44">
+        <v>9.180000305175781</v>
+      </c>
+      <c r="K28" s="44" t="n">
         <f>Financials!H82</f>
-        <v>9.0799999237060547</v>
-      </c>
-      <c r="L28" s="44">
+        <v>9.079999923706055</v>
+      </c>
+      <c r="L28" s="44" t="n">
         <f>Financials!I82</f>
-        <v>6.6100001335144043</v>
-      </c>
-      <c r="M28" s="44">
+        <v>6.610000133514404</v>
+      </c>
+      <c r="M28" s="44" t="n">
         <f>Financials!J82</f>
-        <v>8.1999998092651367</v>
-      </c>
-      <c r="N28" s="44">
+        <v>8.199999809265137</v>
+      </c>
+      <c r="N28" s="44" t="n">
         <f>Financials!K82</f>
-        <v>9.3299999237060547</v>
-      </c>
-      <c r="O28" s="44">
+        <v>9.329999923706055</v>
+      </c>
+      <c r="O28" s="44" t="n">
         <f>Financials!L82</f>
-        <v>8.8599996566772461</v>
-      </c>
-      <c r="P28" s="44">
+        <v>8.859999656677246</v>
+      </c>
+      <c r="P28" s="44" t="n">
         <f>Financials!M82</f>
-        <v>5.5900001525878906</v>
+        <v>5.590000152587891</v>
       </c>
       <c r="Q28" s="44"/>
       <c r="R28" s="44"/>
@@ -19582,9 +19591,9 @@
       <c r="E30" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="127">
+      <c r="F30" s="127" t="n">
         <f>Financials!$C$83</f>
-        <v>0.72000002861022949</v>
+        <v>0.7200000286102295</v>
       </c>
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
@@ -19618,9 +19627,9 @@
       <c r="E32" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="52">
+      <c r="F32" s="52" t="n">
         <f>Financials!D63</f>
-        <v>1.9082739857263942E-2</v>
+        <v>0.01908273985726394</v>
       </c>
     </row>
     <row r="33" spans="2:17" ht="18.5">
@@ -19635,7 +19644,7 @@
       <c r="E33" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="52">
+      <c r="F33" s="52" t="n">
         <f>Financials!D64</f>
         <v>0.10568362440493972</v>
       </c>
@@ -19659,9 +19668,9 @@
       <c r="E35" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="52">
+      <c r="F35" s="52" t="n">
         <f>Financials!D69</f>
-        <v>-1.2595625542054179E-2</v>
+        <v>-0.012595625542054179</v>
       </c>
     </row>
     <row r="36" spans="2:17" ht="18.5">
@@ -19676,9 +19685,9 @@
       <c r="E36" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="52">
+      <c r="F36" s="52" t="n">
         <f>Financials!D70</f>
-        <v>5.3857309948096344E-2</v>
+        <v>0.053857309948096344</v>
       </c>
     </row>
     <row r="37" spans="2:17">
@@ -19701,9 +19710,9 @@
       <c r="E38" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="52">
+      <c r="F38" s="52" t="n">
         <f>Financials!D65</f>
-        <v>-0.14468153045679921</v>
+        <v>-0.1446815304567992</v>
       </c>
     </row>
     <row r="39" spans="2:17" ht="18.5">
@@ -19718,9 +19727,9 @@
       <c r="E39" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="52">
+      <c r="F39" s="52" t="n">
         <f>Financials!D66</f>
-        <v>-2.3562454391197973E-2</v>
+        <v>-0.023562454391197973</v>
       </c>
     </row>
     <row r="40" spans="2:17">
@@ -19742,9 +19751,9 @@
       <c r="E41" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="52">
+      <c r="F41" s="52" t="n">
         <f>Financials!D67</f>
-        <v>5.140553170801887E-2</v>
+        <v>0.05140553170801887</v>
       </c>
     </row>
     <row r="42" spans="2:17" ht="18.5">
@@ -19759,9 +19768,9 @@
       <c r="E42" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="52">
+      <c r="F42" s="52" t="n">
         <f>Financials!D68</f>
-        <v>6.5049938261403595E-2</v>
+        <v>0.0650499382614036</v>
       </c>
     </row>
     <row r="43" spans="2:17">
@@ -19781,9 +19790,9 @@
       <c r="E44" s="101">
         <v>0.75</v>
       </c>
-      <c r="F44" s="103">
+      <c r="F44" s="103" t="n">
         <f>Financials!$D$73</f>
-        <v>0.26668779444096569</v>
+        <v>0.2666877944409657</v>
       </c>
     </row>
     <row r="45" spans="2:17" ht="18.5">
@@ -19798,9 +19807,9 @@
       <c r="E45" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="F45" s="103">
+      <c r="F45" s="103" t="n">
         <f>Financials!D71</f>
-        <v>7.1798608998944413E-2</v>
+        <v>0.07179860899894441</v>
       </c>
     </row>
     <row r="46" spans="2:17" ht="18.5">
@@ -19815,7 +19824,7 @@
       <c r="E46" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="103">
+      <c r="F46" s="103" t="n">
         <f>Financials!D72</f>
         <v>0.10523482790922609</v>
       </c>
@@ -19832,7 +19841,7 @@
       <c r="E47" s="101">
         <v>0.12</v>
       </c>
-      <c r="F47" s="102">
+      <c r="F47" s="102" t="n">
         <f>F45+F46</f>
         <v>0.1770334369081705</v>
       </c>
@@ -19856,13 +19865,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView showGridLines="0" topLeftCell="B62" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T129" sqref="T129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.1796875"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19875,14 +19884,14 @@
   <dimension ref="B2:P27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="61.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="61.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="32.6328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.81640625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="20" thickBot="1">
@@ -19910,7 +19919,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="P4" t="s">
+      <c r="P4" t="s" s="0">
         <v>2</v>
       </c>
     </row>
@@ -19918,56 +19927,56 @@
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="58">
-        <v>159.83000183105469</v>
+      <c r="C5" s="58" t="n">
+        <v>159.8300018310547</v>
       </c>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="59">
-        <v>27887000</v>
+      <c r="C6" s="59" t="n">
+        <v>2.7887E7</v>
       </c>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="59">
-        <v>147350000</v>
+      <c r="C7" s="59" t="n">
+        <v>1.4735E8</v>
       </c>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="59">
-        <v>3896000</v>
+      <c r="C8" s="59" t="n">
+        <v>3896000.0</v>
       </c>
     </row>
     <row r="9" spans="2:16">
       <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="59">
-        <v>9284000</v>
+      <c r="C9" s="59" t="n">
+        <v>9284000.0</v>
       </c>
     </row>
     <row r="10" spans="2:16">
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="59">
-        <v>4359000</v>
+      <c r="C10" s="59" t="n">
+        <v>4359000.0</v>
       </c>
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="60">
-        <v>1</v>
+      <c r="C11" s="60" t="n">
+        <v>1.0</v>
       </c>
       <c r="G11" s="33"/>
     </row>
@@ -19992,7 +20001,7 @@
       <c r="C15" s="14">
         <v>0.12</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" t="s" s="0">
         <v>10</v>
       </c>
     </row>
@@ -20000,25 +20009,25 @@
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="11" t="n">
         <f>SUM(C6:C7)</f>
-        <v>175237000</v>
+        <v>1.75237E8</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="12" t="n">
         <f>C8/C17</f>
-        <v>2.2232747650324989E-2</v>
+        <v>0.02223274765032499</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="12" t="n">
         <f>C14+C11*(C15-C14)</f>
         <v>0.12</v>
       </c>
@@ -20027,11 +20036,11 @@
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="12" t="n">
         <f>C8/C17</f>
-        <v>2.2232747650324989E-2</v>
-      </c>
-      <c r="K20" t="s">
+        <v>0.02223274765032499</v>
+      </c>
+      <c r="K20" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -20039,11 +20048,11 @@
       <c r="B21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="11" t="n">
         <f>C17+C5*1000000</f>
-        <v>335067001.83105499</v>
-      </c>
-      <c r="K21" t="s">
+        <v>3.35067001831055E8</v>
+      </c>
+      <c r="K21" t="s" s="0">
         <v>11</v>
       </c>
     </row>
@@ -20051,11 +20060,11 @@
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="12" t="n">
         <f>C5*1000000/C21</f>
         <v>0.47700907865479186</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" t="s" s="0">
         <v>12</v>
       </c>
     </row>
@@ -20063,9 +20072,9 @@
       <c r="B23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="12" t="n">
         <f>C17/C21</f>
-        <v>0.52299092134520819</v>
+        <v>0.5229909213452082</v>
       </c>
     </row>
     <row r="24" spans="2:15" ht="14.5" customHeight="1" thickTop="1">
@@ -20079,9 +20088,9 @@
       <c r="B25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="17" t="n">
         <f>C23*C20*(1-C18)+C22*C19</f>
-        <v>6.8610102783180901E-2</v>
+        <v>0.0686101027831809</v>
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
@@ -20115,19 +20124,19 @@
   <dimension ref="B3:L74"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="62.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="62.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.90625"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.1796875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="9" max="12" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.81640625"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="20" thickBot="1">
@@ -20140,9 +20149,9 @@
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="20" t="n">
         <f>WACC!C25</f>
-        <v>6.8610102783180901E-2</v>
+        <v>0.0686101027831809</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -20157,16 +20166,16 @@
       <c r="B6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="65">
-        <v>9.9999997764825821E-3</v>
+      <c r="C6" s="65" t="n">
+        <v>0.009999999776482582</v>
       </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="13">
-        <f>AVERAGE(C28:L28)</f>
+      <c r="C7" s="13" t="n">
+        <f>AVERAGEIF(C28:L28, "&lt;0.5")</f>
         <v>0.12232623694075792</v>
       </c>
     </row>
@@ -20174,7 +20183,7 @@
       <c r="B8" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="13" t="n">
         <f>AVERAGEIF(C29:L29,"&lt;2")</f>
         <v>1.1043926498481418</v>
       </c>
@@ -20183,24 +20192,24 @@
       <c r="B9" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="66">
-        <v>8.9700002670288086</v>
+      <c r="C9" s="66" t="n">
+        <v>8.970000267028809</v>
       </c>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="67">
-        <v>4.999999888241291E-3</v>
+      <c r="C10" s="67" t="n">
+        <v>0.004999999888241291</v>
       </c>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="59">
-        <v>4206611968</v>
+      <c r="C11" s="59" t="n">
+        <v>4.206611968E9</v>
       </c>
     </row>
     <row r="12" spans="2:12">
@@ -20250,45 +20259,45 @@
       <c r="B16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="21" t="n">
         <f>Financials!D3</f>
-        <v>64657</v>
-      </c>
-      <c r="D16" s="21">
+        <v>64657.0</v>
+      </c>
+      <c r="D16" s="21" t="n">
         <f>Financials!E3</f>
-        <v>68775</v>
-      </c>
-      <c r="E16" s="21">
+        <v>68775.0</v>
+      </c>
+      <c r="E16" s="21" t="n">
         <f>Financials!F3</f>
-        <v>74510</v>
-      </c>
-      <c r="F16" s="21">
+        <v>74510.0</v>
+      </c>
+      <c r="F16" s="21" t="n">
         <f>Financials!G3</f>
-        <v>80736</v>
-      </c>
-      <c r="G16" s="21">
+        <v>80736.0</v>
+      </c>
+      <c r="G16" s="21" t="n">
         <f>Financials!H3</f>
-        <v>85029</v>
-      </c>
-      <c r="H16" s="21">
+        <v>85029.0</v>
+      </c>
+      <c r="H16" s="21" t="n">
         <f>Financials!I3</f>
-        <v>94507</v>
-      </c>
-      <c r="I16" s="21">
+        <v>94507.0</v>
+      </c>
+      <c r="I16" s="21" t="n">
         <f>Financials!J3</f>
-        <v>108942</v>
-      </c>
-      <c r="J16" s="21">
+        <v>108942.0</v>
+      </c>
+      <c r="J16" s="21" t="n">
         <f>Financials!K3</f>
-        <v>103564</v>
-      </c>
-      <c r="K16" s="21">
+        <v>103564.0</v>
+      </c>
+      <c r="K16" s="21" t="n">
         <f>Financials!L3</f>
-        <v>116385</v>
-      </c>
-      <c r="L16" s="21">
+        <v>116385.0</v>
+      </c>
+      <c r="L16" s="21" t="n">
         <f>Financials!M3</f>
-        <v>121427</v>
+        <v>121427.0</v>
       </c>
     </row>
     <row r="17" spans="2:12">
@@ -20296,41 +20305,41 @@
         <v>27</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="20">
+      <c r="D17" s="20" t="n">
         <f t="shared" ref="D17:L17" si="0">(D16-C16)/C16</f>
-        <v>6.3689933031226317E-2</v>
-      </c>
-      <c r="E17" s="20">
+        <v>0.06368993303122632</v>
+      </c>
+      <c r="E17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>8.338785896037805E-2</v>
-      </c>
-      <c r="F17" s="20">
+        <v>0.08338785896037805</v>
+      </c>
+      <c r="F17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>8.3559253791437388E-2</v>
-      </c>
-      <c r="G17" s="20">
+        <v>0.08355925379143739</v>
+      </c>
+      <c r="G17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>5.3173305588585018E-2</v>
-      </c>
-      <c r="H17" s="20">
+        <v>0.05317330558858502</v>
+      </c>
+      <c r="H17" s="20" t="n">
         <f t="shared" si="0"/>
         <v>0.11146785214456244</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="20" t="n">
         <f t="shared" si="0"/>
         <v>0.15274000867660598</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>-4.9365717537772393E-2</v>
-      </c>
-      <c r="K17" s="20">
+        <v>-0.04936571753777239</v>
+      </c>
+      <c r="K17" s="20" t="n">
         <f t="shared" si="0"/>
         <v>0.12379784481093817</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>4.3321733900416722E-2</v>
+        <v>0.04332173390041672</v>
       </c>
     </row>
     <row r="18" spans="2:12">
@@ -20350,45 +20359,45 @@
       <c r="B19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="21" t="n">
         <f>Financials!D6</f>
-        <v>6816</v>
-      </c>
-      <c r="D19" s="21">
+        <v>6816.0</v>
+      </c>
+      <c r="D19" s="21" t="n">
         <f>Financials!E6</f>
-        <v>8380</v>
-      </c>
-      <c r="E19" s="21">
+        <v>8380.0</v>
+      </c>
+      <c r="E19" s="21" t="n">
         <f>Financials!F6</f>
-        <v>8163</v>
-      </c>
-      <c r="F19" s="21">
+        <v>8163.0</v>
+      </c>
+      <c r="F19" s="21" t="n">
         <f>Financials!G6</f>
-        <v>8678</v>
-      </c>
-      <c r="G19" s="21">
+        <v>8678.0</v>
+      </c>
+      <c r="G19" s="21" t="n">
         <f>Financials!H6</f>
-        <v>22735</v>
-      </c>
-      <c r="H19" s="21">
+        <v>22735.0</v>
+      </c>
+      <c r="H19" s="21" t="n">
         <f>Financials!I6</f>
-        <v>11731</v>
-      </c>
-      <c r="I19" s="21">
+        <v>11731.0</v>
+      </c>
+      <c r="I19" s="21" t="n">
         <f>Financials!J6</f>
-        <v>13057</v>
-      </c>
-      <c r="J19" s="21">
+        <v>13057.0</v>
+      </c>
+      <c r="J19" s="21" t="n">
         <f>Financials!K6</f>
-        <v>10534</v>
-      </c>
-      <c r="K19" s="21">
+        <v>10534.0</v>
+      </c>
+      <c r="K19" s="21" t="n">
         <f>Financials!L6</f>
-        <v>14159</v>
-      </c>
-      <c r="L19" s="21">
+        <v>14159.0</v>
+      </c>
+      <c r="L19" s="21" t="n">
         <f>Financials!M6</f>
-        <v>5370</v>
+        <v>5370.0</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -20396,86 +20405,86 @@
         <v>27</v>
       </c>
       <c r="C20" s="22"/>
-      <c r="D20" s="20">
+      <c r="D20" s="20" t="n">
         <f>(D19-C19)/C19</f>
         <v>0.22946009389671362</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="20" t="n">
         <f t="shared" ref="E20:L20" si="1">(E19-D19)/D19</f>
-        <v>-2.5894988066825775E-2</v>
-      </c>
-      <c r="F20" s="20">
+        <v>-0.025894988066825775</v>
+      </c>
+      <c r="F20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>6.3089550410388343E-2</v>
-      </c>
-      <c r="G20" s="20">
+        <v>0.06308955041038834</v>
+      </c>
+      <c r="G20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>1.6198432818621802</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>-0.48401143611172204</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>0.11303384195720739</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>-0.1932296852263154</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>0.34412378963356749</v>
-      </c>
-      <c r="L20" s="20">
+        <v>0.3441237896335675</v>
+      </c>
+      <c r="L20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>-0.62073592767850838</v>
+        <v>-0.6207359276785084</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="25" t="n">
         <f>Financials!D20</f>
-        <v>5660</v>
-      </c>
-      <c r="D22" s="25">
+        <v>5660.0</v>
+      </c>
+      <c r="D22" s="25" t="n">
         <f>Financials!E20</f>
-        <v>9482</v>
-      </c>
-      <c r="E22" s="25">
+        <v>9482.0</v>
+      </c>
+      <c r="E22" s="25" t="n">
         <f>Financials!F20</f>
-        <v>10808</v>
-      </c>
-      <c r="F22" s="25">
+        <v>10808.0</v>
+      </c>
+      <c r="F22" s="25" t="n">
         <f>Financials!G20</f>
-        <v>10106</v>
-      </c>
-      <c r="G22" s="25">
+        <v>10106.0</v>
+      </c>
+      <c r="G22" s="25" t="n">
         <f>Financials!H20</f>
-        <v>11222</v>
-      </c>
-      <c r="H22" s="25">
+        <v>11222.0</v>
+      </c>
+      <c r="H22" s="25" t="n">
         <f>Financials!I20</f>
-        <v>14063</v>
-      </c>
-      <c r="I22" s="25">
+        <v>14063.0</v>
+      </c>
+      <c r="I22" s="25" t="n">
         <f>Financials!J20</f>
-        <v>14628</v>
-      </c>
-      <c r="J22" s="25">
+        <v>14628.0</v>
+      </c>
+      <c r="J22" s="25" t="n">
         <f>Financials!K20</f>
-        <v>14060</v>
-      </c>
-      <c r="K22" s="25">
+        <v>14060.0</v>
+      </c>
+      <c r="K22" s="25" t="n">
         <f>Financials!L20</f>
-        <v>18996</v>
-      </c>
-      <c r="L22" s="25">
+        <v>18996.0</v>
+      </c>
+      <c r="L22" s="25" t="n">
         <f>Financials!M20</f>
-        <v>15457</v>
+        <v>15457.0</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -20483,41 +20492,41 @@
         <v>27</v>
       </c>
       <c r="C23" s="26"/>
-      <c r="D23" s="26">
+      <c r="D23" s="26" t="n">
         <f>(D22-C22)/C22</f>
-        <v>0.67526501766784452</v>
-      </c>
-      <c r="E23" s="26">
+        <v>0.6752650176678445</v>
+      </c>
+      <c r="E23" s="26" t="n">
         <f t="shared" ref="E23:L23" si="2">(E22-D22)/D22</f>
         <v>0.13984391478591016</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>-6.4951887490747595E-2</v>
-      </c>
-      <c r="G23" s="26">
+        <v>-0.0649518874907476</v>
+      </c>
+      <c r="G23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>0.11042944785276074</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>0.25316342897879168</v>
-      </c>
-      <c r="I23" s="26">
+        <v>0.2531634289787917</v>
+      </c>
+      <c r="I23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>4.0176349285358744E-2</v>
-      </c>
-      <c r="J23" s="26">
+        <v>0.040176349285358744</v>
+      </c>
+      <c r="J23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>-3.8829641782882146E-2</v>
-      </c>
-      <c r="K23" s="26">
+        <v>-0.038829641782882146</v>
+      </c>
+      <c r="K23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>0.35106685633001422</v>
-      </c>
-      <c r="L23" s="26">
+        <v>0.3510668563300142</v>
+      </c>
+      <c r="L23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>-0.18630237944830491</v>
+        <v>-0.1863023794483049</v>
       </c>
     </row>
     <row r="24" spans="2:12">
@@ -20537,45 +20546,45 @@
       <c r="B25" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="62">
+      <c r="C25" s="62" t="n">
         <f>Financials!D9</f>
-        <v>21434</v>
-      </c>
-      <c r="D25" s="62">
+        <v>21434.0</v>
+      </c>
+      <c r="D25" s="62" t="n">
         <f>Financials!E9</f>
-        <v>22923</v>
-      </c>
-      <c r="E25" s="62">
+        <v>22923.0</v>
+      </c>
+      <c r="E25" s="62" t="n">
         <f>Financials!F9</f>
-        <v>24678</v>
-      </c>
-      <c r="F25" s="62">
+        <v>24678.0</v>
+      </c>
+      <c r="F25" s="62" t="n">
         <f>Financials!G9</f>
-        <v>26257</v>
-      </c>
-      <c r="G25" s="62">
+        <v>26257.0</v>
+      </c>
+      <c r="G25" s="62" t="n">
         <f>Financials!H9</f>
-        <v>27706</v>
-      </c>
-      <c r="H25" s="62">
+        <v>27706.0</v>
+      </c>
+      <c r="H25" s="62" t="n">
         <f>Financials!I9</f>
-        <v>29685</v>
-      </c>
-      <c r="I25" s="62">
+        <v>29685.0</v>
+      </c>
+      <c r="I25" s="62" t="n">
         <f>Financials!J9</f>
-        <v>34078</v>
-      </c>
-      <c r="J25" s="62">
+        <v>34078.0</v>
+      </c>
+      <c r="J25" s="62" t="n">
         <f>Financials!K9</f>
-        <v>30593</v>
-      </c>
-      <c r="K25" s="62">
+        <v>30593.0</v>
+      </c>
+      <c r="K25" s="62" t="n">
         <f>Financials!L9</f>
-        <v>34621</v>
-      </c>
-      <c r="L25" s="62">
+        <v>34621.0</v>
+      </c>
+      <c r="L25" s="62" t="n">
         <f>Financials!M9</f>
-        <v>27862</v>
+        <v>27862.0</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -20583,39 +20592,39 @@
         <v>27</v>
       </c>
       <c r="C26" s="63"/>
-      <c r="D26" s="63">
+      <c r="D26" s="63" t="n">
         <f>Financials!E10</f>
-        <v>6.9469067836148174E-2</v>
-      </c>
-      <c r="E26" s="63">
+        <v>0.06946906783614817</v>
+      </c>
+      <c r="E26" s="63" t="n">
         <f>Financials!F10</f>
-        <v>7.656065959952886E-2</v>
-      </c>
-      <c r="F26" s="63">
+        <v>0.07656065959952886</v>
+      </c>
+      <c r="F26" s="63" t="n">
         <f>Financials!G10</f>
-        <v>6.398411540643488E-2</v>
-      </c>
-      <c r="G26" s="63">
+        <v>0.06398411540643488</v>
+      </c>
+      <c r="G26" s="63" t="n">
         <f>Financials!H10</f>
-        <v>5.5185283924286857E-2</v>
-      </c>
-      <c r="H26" s="63">
+        <v>0.05518528392428686</v>
+      </c>
+      <c r="H26" s="63" t="n">
         <f>Financials!I10</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="I26" s="63">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="I26" s="63" t="n">
         <f>Financials!J10</f>
         <v>0.14798719892201448</v>
       </c>
-      <c r="J26" s="63">
+      <c r="J26" s="63" t="n">
         <f>Financials!K10</f>
         <v>-0.10226539116145314</v>
       </c>
-      <c r="K26" s="63">
+      <c r="K26" s="63" t="n">
         <f>Financials!L10</f>
         <v>0.13166410616807767</v>
       </c>
-      <c r="L26" s="63">
+      <c r="L26" s="63" t="n">
         <f>Financials!M10</f>
         <v>-0.19522832962652725</v>
       </c>
@@ -20624,88 +20633,88 @@
       <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="24" t="n">
         <f t="shared" ref="C28:L28" si="3">C19/C16</f>
         <v>0.10541782018961597</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.12184660123591422</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.10955576432693598</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.10748612762584225</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.26737936468734197</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.12412837144338515</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.11985276569183602</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.10171488161909543</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.12165657086394295</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>4.4224101723669362E-2</v>
+        <v>0.04422410172366936</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="15" thickBot="1">
       <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="24" t="n">
         <f t="shared" ref="C29:L29" si="4">C22/C19</f>
-        <v>0.83039906103286387</v>
-      </c>
-      <c r="D29" s="24">
+        <v>0.8303990610328639</v>
+      </c>
+      <c r="D29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.1315035799522672</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.3240230307484993</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.164554044710763</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>0.49360017594018035</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.1987895320092063</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.1203186030481733</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>1.3347256502752991</v>
-      </c>
-      <c r="K29" s="24">
+        <v>1.334725650275299</v>
+      </c>
+      <c r="K29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.3416201709160251</v>
       </c>
-      <c r="L29" s="24">
+      <c r="L29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>2.8783985102420857</v>
       </c>
@@ -20754,43 +20763,43 @@
       <c r="B36" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="21" t="n">
         <f>L16*(C37+1)</f>
         <v>120188.44466839546</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="21" t="n">
         <f>C36*(D37+1)</f>
         <v>123541.7021750671</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="21" t="n">
         <f>D36*(E37+1)</f>
         <v>123492.28549544537</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="21" t="n">
         <f t="shared" ref="F36:L36" si="5">E36*(F37+1)</f>
         <v>124727.20832279646</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="21" t="n">
         <f t="shared" si="5"/>
         <v>125974.48037814493</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="21" t="n">
         <f t="shared" si="5"/>
         <v>127234.22515376864</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="21" t="n">
         <f t="shared" si="5"/>
         <v>128506.5673768673</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J36" s="21" t="n">
         <f t="shared" si="5"/>
         <v>129791.63302191188</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K36" s="21" t="n">
         <f t="shared" si="5"/>
         <v>131089.5493231201</v>
       </c>
-      <c r="L36" s="21">
+      <c r="L36" s="21" t="n">
         <f t="shared" si="5"/>
         <v>132400.44478705007</v>
       </c>
@@ -20799,42 +20808,42 @@
       <c r="B37" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="68">
-        <v>-1.0199999436736107E-2</v>
-      </c>
-      <c r="D37" s="68">
-        <v>2.7899999171495438E-2</v>
-      </c>
-      <c r="E37" s="68">
+      <c r="C37" s="68" t="n">
+        <v>-0.010199999436736107</v>
+      </c>
+      <c r="D37" s="68" t="n">
+        <v>0.027899999171495438</v>
+      </c>
+      <c r="E37" s="68" t="n">
         <v>-3.9999998989515007E-4</v>
       </c>
-      <c r="F37" s="27">
+      <c r="F37" s="27" t="n">
         <f>C6</f>
-        <v>9.9999997764825821E-3</v>
-      </c>
-      <c r="G37" s="27">
+        <v>0.009999999776482582</v>
+      </c>
+      <c r="G37" s="27" t="n">
         <f>C6</f>
-        <v>9.9999997764825821E-3</v>
-      </c>
-      <c r="H37" s="27">
+        <v>0.009999999776482582</v>
+      </c>
+      <c r="H37" s="27" t="n">
         <f>C6</f>
-        <v>9.9999997764825821E-3</v>
-      </c>
-      <c r="I37" s="27">
+        <v>0.009999999776482582</v>
+      </c>
+      <c r="I37" s="27" t="n">
         <f>C6</f>
-        <v>9.9999997764825821E-3</v>
-      </c>
-      <c r="J37" s="27">
+        <v>0.009999999776482582</v>
+      </c>
+      <c r="J37" s="27" t="n">
         <f>C6</f>
-        <v>9.9999997764825821E-3</v>
-      </c>
-      <c r="K37" s="27">
+        <v>0.009999999776482582</v>
+      </c>
+      <c r="K37" s="27" t="n">
         <f>C6</f>
-        <v>9.9999997764825821E-3</v>
-      </c>
-      <c r="L37" s="27">
+        <v>0.009999999776482582</v>
+      </c>
+      <c r="L37" s="27" t="n">
         <f>C6</f>
-        <v>9.9999997764825821E-3</v>
+        <v>0.009999999776482582</v>
       </c>
     </row>
     <row r="38" spans="2:12">
@@ -20854,88 +20863,88 @@
       <c r="B39" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="21" t="n">
         <f>C36*C7</f>
         <v>14702.200160047269</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="21" t="n">
         <f>D36*C7</f>
         <v>15112.391532331803</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="21" t="n">
         <f>E36*C7</f>
         <v>15106.346575871537</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="21" t="n">
         <f>F36*C7</f>
         <v>15257.410038253627</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="21" t="n">
         <f>G36*C7</f>
         <v>15409.984135225835</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="21" t="n">
         <f>H36*C7</f>
         <v>15564.083973133698</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="21" t="n">
         <f>I36*C7</f>
         <v>15719.724809386114</v>
       </c>
-      <c r="J39" s="21">
+      <c r="J39" s="21" t="n">
         <f>J36*C7</f>
         <v>15876.922053966318</v>
       </c>
-      <c r="K39" s="21">
+      <c r="K39" s="21" t="n">
         <f>K36*C7</f>
         <v>16035.691270957159</v>
       </c>
-      <c r="L39" s="21">
+      <c r="L39" s="21" t="n">
         <f>L36*C7</f>
         <v>16196.048180082425</v>
       </c>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="18"/>
-      <c r="C40" s="20">
+      <c r="C40" s="20" t="n">
         <f>(C39-L19)/L19</f>
         <v>1.7378398808281694</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="20" t="n">
         <f>(D39-C39)/C39</f>
-        <v>2.7899999171499195E-2</v>
-      </c>
-      <c r="E40" s="20">
+        <v>0.027899999171499195</v>
+      </c>
+      <c r="E40" s="20" t="n">
         <f t="shared" ref="E40:L40" si="6">(E39-D39)/D39</f>
-        <v>-3.9999998989790399E-4</v>
-      </c>
-      <c r="F40" s="20">
+        <v>-3.99999989897904E-4</v>
+      </c>
+      <c r="F40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>9.9999997764763978E-3</v>
-      </c>
-      <c r="G40" s="20">
+        <v>0.009999999776476398</v>
+      </c>
+      <c r="G40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>9.9999997764805438E-3</v>
-      </c>
-      <c r="H40" s="20">
+        <v>0.009999999776480544</v>
+      </c>
+      <c r="H40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>9.9999997764828978E-3</v>
-      </c>
-      <c r="I40" s="20">
+        <v>0.009999999776482898</v>
+      </c>
+      <c r="I40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>9.999999776477626E-3</v>
-      </c>
-      <c r="J40" s="20">
+        <v>0.009999999776477626</v>
+      </c>
+      <c r="J40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>9.9999997764810104E-3</v>
-      </c>
-      <c r="K40" s="20">
+        <v>0.00999999977648101</v>
+      </c>
+      <c r="K40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>9.9999997764792202E-3</v>
-      </c>
-      <c r="L40" s="20">
+        <v>0.00999999977647922</v>
+      </c>
+      <c r="L40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>9.9999997764795463E-3</v>
+        <v>0.009999999776479546</v>
       </c>
     </row>
     <row r="41" spans="2:12">
@@ -20955,43 +20964,43 @@
       <c r="B42" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="21" t="n">
         <f>C39*C8</f>
         <v>16237.001793352385</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="21" t="n">
         <f>D39*C8</f>
-        <v>16690.014129934509</v>
-      </c>
-      <c r="E42" s="21">
+        <v>16690.01412993451</v>
+      </c>
+      <c r="E42" s="21" t="n">
         <f>E39*C8</f>
         <v>16683.338124451104</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="21" t="n">
         <f>F39*C8</f>
         <v>16850.171501966506</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="21" t="n">
         <f>G39*C8</f>
-        <v>17018.673213219819</v>
-      </c>
-      <c r="H42" s="21">
+        <v>17018.67321321982</v>
+      </c>
+      <c r="H42" s="21" t="n">
         <f>H39*C8</f>
         <v>17188.859941548093</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="21" t="n">
         <f>I39*C8</f>
-        <v>17360.748537121461</v>
-      </c>
-      <c r="J42" s="21">
+        <v>17360.74853712146</v>
+      </c>
+      <c r="J42" s="21" t="n">
         <f>J39*C8</f>
         <v>17534.356018612216</v>
       </c>
-      <c r="K42" s="21">
+      <c r="K42" s="21" t="n">
         <f>K39*C8</f>
-        <v>17709.699574879109</v>
-      </c>
-      <c r="L42" s="21">
+        <v>17709.69957487911</v>
+      </c>
+      <c r="L42" s="21" t="n">
         <f>L39*C8</f>
         <v>17886.796566669345</v>
       </c>
@@ -21000,88 +21009,88 @@
       <c r="B43" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="20" t="n">
         <f>(C42-L22)/L22</f>
-        <v>5.0462689613274568E-2</v>
-      </c>
-      <c r="D43" s="20">
+        <v>0.05046268961327457</v>
+      </c>
+      <c r="D43" s="20" t="n">
         <f>(D42-C42)/C42</f>
-        <v>2.7899999171496798E-2</v>
-      </c>
-      <c r="E43" s="20">
+        <v>0.027899999171496798</v>
+      </c>
+      <c r="E43" s="20" t="n">
         <f t="shared" ref="E43:L43" si="7">(E42-D42)/D42</f>
         <v>-3.9999998990001336E-4</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>9.9999997764770466E-3</v>
-      </c>
-      <c r="G43" s="20">
+        <v>0.009999999776477047</v>
+      </c>
+      <c r="G43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>9.9999997764799019E-3</v>
-      </c>
-      <c r="H43" s="20">
+        <v>0.009999999776479902</v>
+      </c>
+      <c r="H43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>9.9999997764852779E-3</v>
-      </c>
-      <c r="I43" s="20">
+        <v>0.009999999776485278</v>
+      </c>
+      <c r="I43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>9.9999997764765661E-3</v>
-      </c>
-      <c r="J43" s="20">
+        <v>0.009999999776476566</v>
+      </c>
+      <c r="J43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>9.9999997764808352E-3</v>
-      </c>
-      <c r="K43" s="20">
+        <v>0.009999999776480835</v>
+      </c>
+      <c r="K43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>9.9999997764828666E-3</v>
-      </c>
-      <c r="L43" s="20">
+        <v>0.009999999776482867</v>
+      </c>
+      <c r="L43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>9.9999997764753726E-3</v>
+        <v>0.009999999776475373</v>
       </c>
     </row>
     <row r="45" spans="2:12">
       <c r="B45" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="21" t="n">
         <f>L25*(1+C46)</f>
         <v>28001.309996886142</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="21" t="n">
         <f>C45*(1+D46)</f>
         <v>28141.316543741104</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="21" t="n">
         <f t="shared" ref="E45:L45" si="8">D45*(1+E46)</f>
-        <v>28282.023123314731</v>
-      </c>
-      <c r="F45" s="21">
+        <v>28282.02312331473</v>
+      </c>
+      <c r="F45" s="21" t="n">
         <f t="shared" si="8"/>
         <v>28423.433235770473</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="21" t="n">
         <f t="shared" si="8"/>
         <v>28565.55039877275</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H45" s="21" t="n">
         <f t="shared" si="8"/>
         <v>28708.378147574076</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>28851.920035103522</v>
-      </c>
-      <c r="J45" s="21">
+        <v>28851.92003510352</v>
+      </c>
+      <c r="J45" s="21" t="n">
         <f t="shared" si="8"/>
         <v>28996.179632054525</v>
       </c>
-      <c r="K45" s="21">
+      <c r="K45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>29141.160526974159</v>
-      </c>
-      <c r="L45" s="21">
+        <v>29141.16052697416</v>
+      </c>
+      <c r="L45" s="21" t="n">
         <f t="shared" si="8"/>
         <v>29286.866326352254</v>
       </c>
@@ -21090,45 +21099,45 @@
       <c r="B46" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="20" t="n">
         <f>C10</f>
-        <v>4.999999888241291E-3</v>
-      </c>
-      <c r="D46" s="20">
+        <v>0.004999999888241291</v>
+      </c>
+      <c r="D46" s="20" t="n">
         <f>C10</f>
-        <v>4.999999888241291E-3</v>
-      </c>
-      <c r="E46" s="20">
+        <v>0.004999999888241291</v>
+      </c>
+      <c r="E46" s="20" t="n">
         <f>C10</f>
-        <v>4.999999888241291E-3</v>
-      </c>
-      <c r="F46" s="20">
+        <v>0.004999999888241291</v>
+      </c>
+      <c r="F46" s="20" t="n">
         <f>C10</f>
-        <v>4.999999888241291E-3</v>
-      </c>
-      <c r="G46" s="20">
+        <v>0.004999999888241291</v>
+      </c>
+      <c r="G46" s="20" t="n">
         <f>C10</f>
-        <v>4.999999888241291E-3</v>
-      </c>
-      <c r="H46" s="20">
+        <v>0.004999999888241291</v>
+      </c>
+      <c r="H46" s="20" t="n">
         <f>C10</f>
-        <v>4.999999888241291E-3</v>
-      </c>
-      <c r="I46" s="20">
+        <v>0.004999999888241291</v>
+      </c>
+      <c r="I46" s="20" t="n">
         <f>C10</f>
-        <v>4.999999888241291E-3</v>
-      </c>
-      <c r="J46" s="20">
+        <v>0.004999999888241291</v>
+      </c>
+      <c r="J46" s="20" t="n">
         <f>C10</f>
-        <v>4.999999888241291E-3</v>
-      </c>
-      <c r="K46" s="20">
+        <v>0.004999999888241291</v>
+      </c>
+      <c r="K46" s="20" t="n">
         <f>C10</f>
-        <v>4.999999888241291E-3</v>
-      </c>
-      <c r="L46" s="20">
+        <v>0.004999999888241291</v>
+      </c>
+      <c r="L46" s="20" t="n">
         <f>C10</f>
-        <v>4.999999888241291E-3</v>
+        <v>0.004999999888241291</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="20" thickBot="1">
@@ -21178,43 +21187,43 @@
       <c r="B51" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="61">
+      <c r="C51" s="61" t="n">
         <f>POWER((1+C4),1)</f>
-        <v>1.0686101027831809</v>
-      </c>
-      <c r="D51" s="61">
+        <v>1.068610102783181</v>
+      </c>
+      <c r="D51" s="61" t="n">
         <f>POWER((1+C4),2)</f>
         <v>1.1419275517702805</v>
       </c>
-      <c r="E51" s="61">
+      <c r="E51" s="61" t="n">
         <f>POWER((1+C4),3)</f>
         <v>1.2202753184681856</v>
       </c>
-      <c r="F51" s="61">
+      <c r="F51" s="61" t="n">
         <f>POWER((1+C4),4)</f>
         <v>1.3039985334920665</v>
       </c>
-      <c r="G51" s="61">
+      <c r="G51" s="61" t="n">
         <f>POWER((1+C4),5)</f>
         <v>1.3934660069040745</v>
       </c>
-      <c r="H51" s="61">
+      <c r="H51" s="61" t="n">
         <f>POWER((1+C4),6)</f>
         <v>1.4890718528626317</v>
       </c>
-      <c r="I51" s="61">
+      <c r="I51" s="61" t="n">
         <f>POWER((1+C4),7)</f>
         <v>1.5912372257390786</v>
       </c>
-      <c r="J51" s="61">
+      <c r="J51" s="61" t="n">
         <f>POWER((1+C4),8)</f>
         <v>1.7004121753494603</v>
       </c>
-      <c r="K51" s="61">
+      <c r="K51" s="61" t="n">
         <f>POWER((1+C4),9)</f>
         <v>1.817077629473959</v>
       </c>
-      <c r="L51" s="61">
+      <c r="L51" s="61" t="n">
         <f>POWER((1+C4),10)</f>
         <v>1.9417475123971861</v>
       </c>
@@ -21236,45 +21245,45 @@
       <c r="B53" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="21" t="n">
         <f t="shared" ref="C53:L53" si="9">C42/C51</f>
         <v>15194.505227924907</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="21" t="n">
         <f t="shared" si="9"/>
         <v>14615.650619919545</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E53" s="21" t="n">
         <f t="shared" si="9"/>
         <v>13671.781992111151</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F53" s="21" t="n">
         <f t="shared" si="9"/>
         <v>12921.925193306954</v>
       </c>
-      <c r="G53" s="21">
+      <c r="G53" s="21" t="n">
         <f t="shared" si="9"/>
         <v>12213.195821712938</v>
       </c>
-      <c r="H53" s="21">
+      <c r="H53" s="21" t="n">
         <f t="shared" si="9"/>
         <v>11543.33815960848</v>
       </c>
-      <c r="I53" s="21">
+      <c r="I53" s="21" t="n">
         <f t="shared" si="9"/>
         <v>10910.220208717135</v>
       </c>
-      <c r="J53" s="21">
+      <c r="J53" s="21" t="n">
         <f t="shared" si="9"/>
         <v>10311.826904561318</v>
       </c>
-      <c r="K53" s="21">
+      <c r="K53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>9746.2537029890245</v>
-      </c>
-      <c r="L53" s="21">
+        <v>9746.253702989025</v>
+      </c>
+      <c r="L53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>9211.7005184608697</v>
+        <v>9211.70051846087</v>
       </c>
     </row>
     <row r="54" spans="2:12">
@@ -21294,7 +21303,7 @@
       <c r="B55" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="74">
+      <c r="C55" s="74" t="n">
         <f>POWER((1+C4),11)</f>
         <v>2.074971008801743</v>
       </c>
@@ -21353,16 +21362,16 @@
       <c r="B59" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="25">
+      <c r="C59" s="25" t="n">
         <f>L53*(1+C5)/(C4-C5)</f>
-        <v>216509.30469863239</v>
+        <v>216509.3046986324</v>
       </c>
     </row>
     <row r="60" spans="2:12" ht="15" thickBot="1">
       <c r="B60" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="23" t="n">
         <f>C59/C55</f>
         <v>104343.29143888252</v>
       </c>
@@ -21372,7 +21381,7 @@
       <c r="B62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="71">
+      <c r="C62" s="71" t="n">
         <f>(SUM(C53:L53)+C59)</f>
         <v>336849.7030479447</v>
       </c>
@@ -21384,9 +21393,9 @@
       <c r="B64" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="70">
+      <c r="C64" s="70" t="n">
         <f>C62/(C11/1000000)</f>
-        <v>80.076247966388379</v>
+        <v>80.07624796638838</v>
       </c>
       <c r="D64" s="29"/>
       <c r="E64" s="30"/>
@@ -21423,16 +21432,16 @@
       <c r="B69" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="25">
+      <c r="C69" s="25" t="n">
         <f>L45*C9</f>
-        <v>262703.19876781717</v>
+        <v>262703.1987678172</v>
       </c>
     </row>
     <row r="70" spans="2:12" ht="15" thickBot="1">
       <c r="B70" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="23">
+      <c r="C70" s="23" t="n">
         <f>C69/C55</f>
         <v>126605.72010571057</v>
       </c>
@@ -21445,7 +21454,7 @@
       <c r="B72" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="72">
+      <c r="C72" s="72" t="n">
         <f>SUM(C53:L53)+C70</f>
         <v>246946.11845502286</v>
       </c>
@@ -21455,9 +21464,9 @@
       <c r="B74" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="70">
+      <c r="C74" s="70" t="n">
         <f>C72/(C11/1000000)</f>
-        <v>58.704278011273658</v>
+        <v>58.70427801127366</v>
       </c>
     </row>
   </sheetData>
@@ -21481,7 +21490,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="29.90625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="29.90625"/>
   </cols>
   <sheetData>
     <row r="13" spans="2:3" ht="20" thickBot="1">
@@ -21495,7 +21504,7 @@
       <c r="B15" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="78">
+      <c r="C15" s="78" t="n">
         <v>2.6700000762939453</v>
       </c>
     </row>
@@ -21503,7 +21512,7 @@
       <c r="B16" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>7</v>
       </c>
     </row>
@@ -21511,15 +21520,15 @@
       <c r="B17" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="78">
-        <v>9</v>
+      <c r="C17" s="78" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>4.42</v>
       </c>
       <c r="D18" s="77" t="s">
@@ -21533,9 +21542,9 @@
       <c r="B20" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="79">
+      <c r="C20" s="79" t="n">
         <f>(C15*(C16+C17)*4.4)/C18</f>
-        <v>42.526698047758821</v>
+        <v>42.52669804775882</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="15" thickTop="1"/>
@@ -21553,23 +21562,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.6328125"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.54296875"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="6.81640625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="117">
+      <c r="C2" s="117" t="n">
         <v>1.0800000429153442</v>
       </c>
     </row>
@@ -21646,7 +21655,7 @@
       <c r="O6" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P6" s="106">
+      <c r="P6" s="106" t="n">
         <f>C2</f>
         <v>1.0800000429153442</v>
       </c>
@@ -21655,47 +21664,47 @@
       <c r="B7" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="90">
+      <c r="C7" s="90" t="n">
         <f>P6*(1+P7)</f>
         <v>1.1070000443905559</v>
       </c>
-      <c r="D7" s="90">
+      <c r="D7" s="90" t="n">
         <f>C7*(1+P7)</f>
         <v>1.1346750459127146</v>
       </c>
-      <c r="E7" s="90">
+      <c r="E7" s="90" t="n">
         <f>D7*(1+P7)</f>
         <v>1.1630419224832282</v>
       </c>
-      <c r="F7" s="90">
+      <c r="F7" s="90" t="n">
         <f>E7*(1+P7)</f>
         <v>1.1921179709785787</v>
       </c>
-      <c r="G7" s="90">
+      <c r="G7" s="90" t="n">
         <f>F7*(1+P7)</f>
         <v>1.2219209206971442</v>
       </c>
-      <c r="H7" s="90">
+      <c r="H7" s="90" t="n">
         <f>G7*(1+P7)</f>
         <v>1.2524689441697707</v>
       </c>
-      <c r="I7" s="90">
+      <c r="I7" s="90" t="n">
         <f>H7*(1+P7)</f>
         <v>1.2837806682405966</v>
       </c>
-      <c r="J7" s="90">
+      <c r="J7" s="90" t="n">
         <f>I7*(1+P7)</f>
         <v>1.3158751854248618</v>
       </c>
-      <c r="K7" s="90">
+      <c r="K7" s="90" t="n">
         <f>J7*(1+P7)</f>
         <v>1.3487720655506845</v>
       </c>
-      <c r="L7" s="90">
+      <c r="L7" s="90" t="n">
         <f>K7*(1+P7)</f>
-        <v>1.3824913676919051</v>
-      </c>
-      <c r="M7" s="159">
+        <v>1.382491367691905</v>
+      </c>
+      <c r="M7" s="159" t="n">
         <f>L7*(1+P7)/(P8-P7)</f>
         <v>32.493701552352015</v>
       </c>
@@ -21703,55 +21712,55 @@
       <c r="O7" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P7" s="104">
-        <v>2.500000037252903E-2</v>
+      <c r="P7" s="104" t="n">
+        <v>0.02500000037252903</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" thickBot="1">
       <c r="B8" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="90">
+      <c r="C8" s="90" t="n">
         <f>C7/(1+P8)</f>
         <v>1.0359251157249907</v>
       </c>
-      <c r="D8" s="90">
+      <c r="D8" s="90" t="n">
         <f>D7/(1+P8)^2</f>
-        <v>0.99364889143244972</v>
-      </c>
-      <c r="E8" s="90">
+        <v>0.9936488914324497</v>
+      </c>
+      <c r="E8" s="90" t="n">
         <f>E7/(1+P8)^3</f>
-        <v>0.95309796476355435</v>
-      </c>
-      <c r="F8" s="90">
+        <v>0.9530979647635544</v>
+      </c>
+      <c r="F8" s="90" t="n">
         <f>F7/(1+P8)^4</f>
-        <v>0.91420192612189743</v>
-      </c>
-      <c r="G8" s="90">
+        <v>0.9142019261218974</v>
+      </c>
+      <c r="G8" s="90" t="n">
         <f>G7/(1+P8)^5</f>
-        <v>0.87689323933487273</v>
-      </c>
-      <c r="H8" s="90">
+        <v>0.8768932393348727</v>
+      </c>
+      <c r="H8" s="90" t="n">
         <f>H7/(1+P8)^6</f>
-        <v>0.84110712438892155</v>
-      </c>
-      <c r="I8" s="90">
+        <v>0.8411071243889215</v>
+      </c>
+      <c r="I8" s="90" t="n">
         <f>I7/(1+P8)^7</f>
         <v>0.8067814449503744</v>
       </c>
-      <c r="J8" s="90">
+      <c r="J8" s="90" t="n">
         <f>J7/(1+P8)^8</f>
-        <v>0.77385660047654514</v>
-      </c>
-      <c r="K8" s="90">
+        <v>0.7738566004765451</v>
+      </c>
+      <c r="K8" s="90" t="n">
         <f>K7/(1+P8)^9</f>
-        <v>0.74227542272981839</v>
-      </c>
-      <c r="L8" s="90">
+        <v>0.7422754227298184</v>
+      </c>
+      <c r="L8" s="90" t="n">
         <f>L7/(1+P8)^10</f>
-        <v>0.71198307651500548</v>
-      </c>
-      <c r="M8" s="159">
+        <v>0.7119830765150055</v>
+      </c>
+      <c r="M8" s="159" t="n">
         <f>M7/POWER((1+P8),10)</f>
         <v>16.734256820155164</v>
       </c>
@@ -21759,9 +21768,9 @@
       <c r="O8" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P8" s="105">
+      <c r="P8" s="105" t="n">
         <f>WACC!$C$25</f>
-        <v>6.8610102783180901E-2</v>
+        <v>0.0686101027831809</v>
       </c>
     </row>
     <row r="9" spans="2:16">
@@ -21772,7 +21781,7 @@
       <c r="B10" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="95">
+      <c r="C10" s="95" t="n">
         <f>SUM(C8:N8)*(1-P9)</f>
         <v>25.3840276265936</v>
       </c>
@@ -21867,7 +21876,7 @@
       <c r="O15" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P15" s="106">
+      <c r="P15" s="106" t="n">
         <f>C2</f>
         <v>1.0800000429153442</v>
       </c>
@@ -21876,103 +21885,103 @@
       <c r="B16" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="90">
+      <c r="C16" s="90" t="n">
         <f>P15*(1+P16)</f>
-        <v>1.1124000434786061</v>
-      </c>
-      <c r="D16" s="90">
+        <v>1.112400043478606</v>
+      </c>
+      <c r="D16" s="90" t="n">
         <f>C16*(1+P16)</f>
         <v>1.1457720440370485</v>
       </c>
-      <c r="E16" s="90">
+      <c r="E16" s="90" t="n">
         <f>D16*(1+P16)</f>
         <v>1.1801452045898642</v>
       </c>
-      <c r="F16" s="90">
+      <c r="F16" s="90" t="n">
         <f>E16*(1+P16)</f>
         <v>1.2155495599362094</v>
       </c>
-      <c r="G16" s="90">
+      <c r="G16" s="90" t="n">
         <f>F16*(1+P16)</f>
         <v>1.2520160459192096</v>
       </c>
-      <c r="H16" s="90">
+      <c r="H16" s="90" t="n">
         <f>G16*(1+P16)</f>
         <v>1.289576526457247</v>
       </c>
-      <c r="I16" s="90">
+      <c r="I16" s="90" t="n">
         <f>H16*(1+P16)</f>
         <v>1.3282638213862419</v>
       </c>
-      <c r="J16" s="90">
+      <c r="J16" s="90" t="n">
         <f>I16*(1+P16)</f>
-        <v>1.3681117351371599</v>
-      </c>
-      <c r="K16" s="90">
+        <v>1.36811173513716</v>
+      </c>
+      <c r="K16" s="90" t="n">
         <f>J16*(1+P16)</f>
         <v>1.4091550862738875</v>
       </c>
-      <c r="L16" s="90">
+      <c r="L16" s="90" t="n">
         <f>K16*(1+P16)</f>
         <v>1.4514297379171976</v>
       </c>
-      <c r="M16" s="159">
+      <c r="M16" s="159" t="n">
         <f>L16*(1+P16)/(P17-P16)</f>
-        <v>38.719726065300442</v>
+        <v>38.71972606530044</v>
       </c>
       <c r="N16" s="160"/>
       <c r="O16" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P16" s="104">
-        <v>2.9999999329447746E-2</v>
+      <c r="P16" s="104" t="n">
+        <v>0.029999999329447746</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" thickBot="1">
       <c r="B17" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="90">
+      <c r="C17" s="90" t="n">
         <f>C16/(1+P17)</f>
-        <v>1.0409784079163951</v>
-      </c>
-      <c r="D17" s="90">
+        <v>1.040978407916395</v>
+      </c>
+      <c r="D17" s="90" t="n">
         <f>D16/(1+P17)^2</f>
         <v>1.0033666691558585</v>
       </c>
-      <c r="E17" s="90">
+      <c r="E17" s="90" t="n">
         <f>E16/(1+P17)^3</f>
-        <v>0.96711388547241517</v>
-      </c>
-      <c r="F17" s="90">
+        <v>0.9671138854724152</v>
+      </c>
+      <c r="F17" s="90" t="n">
         <f>F16/(1+P17)^4</f>
-        <v>0.93217095626710855</v>
-      </c>
-      <c r="G17" s="90">
+        <v>0.9321709562671086</v>
+      </c>
+      <c r="G17" s="90" t="n">
         <f>G16/(1+P17)^5</f>
-        <v>0.89849055500167807</v>
-      </c>
-      <c r="H17" s="90">
+        <v>0.8984905550016781</v>
+      </c>
+      <c r="H17" s="90" t="n">
         <f>H16/(1+P17)^6</f>
-        <v>0.86602706509973637</v>
-      </c>
-      <c r="I17" s="90">
+        <v>0.8660270650997364</v>
+      </c>
+      <c r="I17" s="90" t="n">
         <f>I16/(1+P17)^7</f>
-        <v>0.83473651816391048</v>
-      </c>
-      <c r="J17" s="90">
+        <v>0.8347365181639105</v>
+      </c>
+      <c r="J17" s="90" t="n">
         <f>J16/(1+P17)^8</f>
-        <v>0.80457653442524468</v>
-      </c>
-      <c r="K17" s="90">
+        <v>0.8045765344252447</v>
+      </c>
+      <c r="K17" s="90" t="n">
         <f>K16/(1+P17)^9</f>
-        <v>0.77550626534422595</v>
-      </c>
-      <c r="L17" s="90">
+        <v>0.775506265344226</v>
+      </c>
+      <c r="L17" s="90" t="n">
         <f>L16/(1+P17)^10</f>
-        <v>0.74748633828572963</v>
-      </c>
-      <c r="M17" s="159">
+        <v>0.7474863382857296</v>
+      </c>
+      <c r="M17" s="159" t="n">
         <f>M16/POWER((1+P17),10)</f>
         <v>19.940659544092245</v>
       </c>
@@ -21980,9 +21989,9 @@
       <c r="O17" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P17" s="105">
+      <c r="P17" s="105" t="n">
         <f>WACC!$C$25</f>
-        <v>6.8610102783180901E-2</v>
+        <v>0.0686101027831809</v>
       </c>
     </row>
     <row r="18" spans="2:16">
@@ -21993,9 +22002,9 @@
       <c r="B19" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="95">
+      <c r="C19" s="95" t="n">
         <f>SUM(C17:N17)*(1-P18)</f>
-        <v>28.811112739224502</v>
+        <v>28.8111127392245</v>
       </c>
       <c r="D19" s="96"/>
       <c r="E19" s="96"/>
@@ -22082,7 +22091,7 @@
       <c r="O24" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P24" s="106">
+      <c r="P24" s="106" t="n">
         <f>C2</f>
         <v>1.0800000429153442</v>
       </c>
@@ -22091,103 +22100,103 @@
       <c r="B25" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="90">
+      <c r="C25" s="90" t="n">
         <f>P24*(1+P25)</f>
         <v>1.1178000445783076</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D25" s="90" t="n">
         <f>C25*(1+P25)</f>
         <v>1.1569230463051143</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E25" s="90" t="n">
         <f>D25*(1+P25)</f>
-        <v>1.1974153530981819</v>
-      </c>
-      <c r="F25" s="90">
+        <v>1.197415353098182</v>
+      </c>
+      <c r="F25" s="90" t="n">
         <f>E25*(1+P25)</f>
         <v>1.2393248906350431</v>
       </c>
-      <c r="G25" s="90">
+      <c r="G25" s="90" t="n">
         <f>F25*(1+P25)</f>
         <v>1.2827012619919382</v>
       </c>
-      <c r="H25" s="90">
+      <c r="H25" s="90" t="n">
         <f>G25*(1+P25)</f>
         <v>1.3275958063527933</v>
       </c>
-      <c r="I25" s="90">
+      <c r="I25" s="90" t="n">
         <f>H25*(1+P25)</f>
         <v>1.3740616597729627</v>
       </c>
-      <c r="J25" s="90">
+      <c r="J25" s="90" t="n">
         <f>I25*(1+P25)</f>
         <v>1.4221538180697626</v>
       </c>
-      <c r="K25" s="90">
+      <c r="K25" s="90" t="n">
         <f>J25*(1+P25)</f>
         <v>1.4719292019141168</v>
       </c>
-      <c r="L25" s="90">
+      <c r="L25" s="90" t="n">
         <f>K25*(1+P25)</f>
         <v>1.5234467242004464</v>
       </c>
-      <c r="M25" s="159">
+      <c r="M25" s="159" t="n">
         <f>L25*(1+P25)/(P26-P25)</f>
-        <v>46.913494342366832</v>
+        <v>46.91349434236683</v>
       </c>
       <c r="N25" s="160"/>
       <c r="O25" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P25" s="104">
-        <v>3.5000000149011612E-2</v>
+      <c r="P25" s="104" t="n">
+        <v>0.03500000014901161</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15" thickBot="1">
       <c r="B26" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="90">
+      <c r="C26" s="90" t="n">
         <f>C25/(1+P26)</f>
         <v>1.0460317019902914</v>
       </c>
-      <c r="D26" s="90">
+      <c r="D26" s="90" t="n">
         <f>D25/(1+P26)^2</f>
         <v>1.0131317389720418</v>
       </c>
-      <c r="E26" s="90">
+      <c r="E26" s="90" t="n">
         <f>E25/(1+P26)^3</f>
-        <v>0.98126655106102934</v>
-      </c>
-      <c r="F26" s="90">
+        <v>0.9812665510610293</v>
+      </c>
+      <c r="F26" s="90" t="n">
         <f>F25/(1+P26)^4</f>
-        <v>0.95040359233853133</v>
-      </c>
-      <c r="G26" s="90">
+        <v>0.9504035923385313</v>
+      </c>
+      <c r="G26" s="90" t="n">
         <f>G25/(1+P26)^5</f>
-        <v>0.92051134052547046</v>
-      </c>
-      <c r="H26" s="90">
+        <v>0.9205113405254705</v>
+      </c>
+      <c r="H26" s="90" t="n">
         <f>H25/(1+P26)^6</f>
-        <v>0.89155926478670977</v>
-      </c>
-      <c r="I26" s="90">
+        <v>0.8915592647867098</v>
+      </c>
+      <c r="I26" s="90" t="n">
         <f>I25/(1+P26)^7</f>
         <v>0.863517794548045</v>
       </c>
-      <c r="J26" s="90">
+      <c r="J26" s="90" t="n">
         <f>J25/(1+P26)^8</f>
-        <v>0.83635828929388034</v>
-      </c>
-      <c r="K26" s="90">
+        <v>0.8363582892938803</v>
+      </c>
+      <c r="K26" s="90" t="n">
         <f>K25/(1+P26)^9</f>
-        <v>0.81005300931487456</v>
-      </c>
-      <c r="L26" s="90">
+        <v>0.8100530093148746</v>
+      </c>
+      <c r="L26" s="90" t="n">
         <f>L25/(1+P26)^10</f>
-        <v>0.78457508737563642</v>
-      </c>
-      <c r="M26" s="159">
+        <v>0.7845750873756364</v>
+      </c>
+      <c r="M26" s="159" t="n">
         <f>M25/POWER((1+P26),10)</f>
         <v>24.160450338082118</v>
       </c>
@@ -22195,9 +22204,9 @@
       <c r="O26" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P26" s="105">
+      <c r="P26" s="105" t="n">
         <f>WACC!$C$25</f>
-        <v>6.8610102783180901E-2</v>
+        <v>0.0686101027831809</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -22208,9 +22217,9 @@
       <c r="B28" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="95">
+      <c r="C28" s="95" t="n">
         <f>SUM(C26:N26)*(1-P27)</f>
-        <v>33.257858708288602</v>
+        <v>33.2578587082886</v>
       </c>
       <c r="D28" s="96"/>
       <c r="E28" s="96"/>
@@ -22253,12 +22262,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="62.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="110" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" style="110" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="11.26953125" style="110" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.6328125" style="110" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="62.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="110" width="10.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="110" width="13.26953125"/>
+    <col min="5" max="11" bestFit="true" customWidth="true" style="110" width="11.26953125"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" style="110" width="11.6328125"/>
+    <col min="19" max="19" customWidth="true" width="11.7265625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17.5" thickBot="1">
@@ -22301,38 +22310,38 @@
       <c r="B3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="120">
-        <v>62570</v>
-      </c>
-      <c r="D3" s="110">
-        <v>64657</v>
-      </c>
-      <c r="E3" s="110">
-        <v>68775</v>
-      </c>
-      <c r="F3" s="110">
-        <v>74510</v>
-      </c>
-      <c r="G3" s="110">
-        <v>80736</v>
-      </c>
-      <c r="H3" s="110">
-        <v>85029</v>
-      </c>
-      <c r="I3" s="110">
-        <v>94507</v>
-      </c>
-      <c r="J3" s="110">
-        <v>108942</v>
-      </c>
-      <c r="K3" s="110">
-        <v>103564</v>
-      </c>
-      <c r="L3" s="110">
-        <v>116385</v>
-      </c>
-      <c r="M3" s="110">
-        <v>121427</v>
+      <c r="C3" s="120" t="n">
+        <v>62570.0</v>
+      </c>
+      <c r="D3" s="110" t="n">
+        <v>64657.0</v>
+      </c>
+      <c r="E3" s="110" t="n">
+        <v>68775.0</v>
+      </c>
+      <c r="F3" s="110" t="n">
+        <v>74510.0</v>
+      </c>
+      <c r="G3" s="110" t="n">
+        <v>80736.0</v>
+      </c>
+      <c r="H3" s="110" t="n">
+        <v>85029.0</v>
+      </c>
+      <c r="I3" s="110" t="n">
+        <v>94507.0</v>
+      </c>
+      <c r="J3" s="110" t="n">
+        <v>108942.0</v>
+      </c>
+      <c r="K3" s="110" t="n">
+        <v>103564.0</v>
+      </c>
+      <c r="L3" s="110" t="n">
+        <v>116385.0</v>
+      </c>
+      <c r="M3" s="110" t="n">
+        <v>121427.0</v>
       </c>
       <c r="Q3" s="107"/>
     </row>
@@ -22341,45 +22350,45 @@
         <v>27</v>
       </c>
       <c r="C4" s="113"/>
-      <c r="D4" s="121">
+      <c r="D4" s="121" t="n">
         <f t="shared" ref="D4:M4" si="0">(D3-C3)/C3</f>
-        <v>3.3354642800063929E-2</v>
-      </c>
-      <c r="E4" s="121">
+        <v>0.03335464280006393</v>
+      </c>
+      <c r="E4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>6.3689933031226317E-2</v>
-      </c>
-      <c r="F4" s="121">
+        <v>0.06368993303122632</v>
+      </c>
+      <c r="F4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>8.338785896037805E-2</v>
-      </c>
-      <c r="G4" s="121">
+        <v>0.08338785896037805</v>
+      </c>
+      <c r="G4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>8.3559253791437388E-2</v>
-      </c>
-      <c r="H4" s="121">
+        <v>0.08355925379143739</v>
+      </c>
+      <c r="H4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>5.3173305588585018E-2</v>
-      </c>
-      <c r="I4" s="121">
+        <v>0.05317330558858502</v>
+      </c>
+      <c r="I4" s="121" t="n">
         <f t="shared" si="0"/>
         <v>0.11146785214456244</v>
       </c>
-      <c r="J4" s="121">
+      <c r="J4" s="121" t="n">
         <f t="shared" si="0"/>
         <v>0.15274000867660598</v>
       </c>
-      <c r="K4" s="121">
+      <c r="K4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>-4.9365717537772393E-2</v>
-      </c>
-      <c r="L4" s="121">
+        <v>-0.04936571753777239</v>
+      </c>
+      <c r="L4" s="121" t="n">
         <f t="shared" si="0"/>
         <v>0.12379784481093817</v>
       </c>
-      <c r="M4" s="121">
+      <c r="M4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>4.3321733900416722E-2</v>
+        <v>0.04332173390041672</v>
       </c>
       <c r="Q4" s="107"/>
     </row>
@@ -22402,38 +22411,38 @@
       <c r="B6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="110">
-        <v>6203</v>
-      </c>
-      <c r="D6" s="110">
-        <v>6816</v>
-      </c>
-      <c r="E6" s="110">
-        <v>8380</v>
-      </c>
-      <c r="F6" s="110">
-        <v>8163</v>
-      </c>
-      <c r="G6" s="110">
-        <v>8678</v>
-      </c>
-      <c r="H6" s="110">
-        <v>22735</v>
-      </c>
-      <c r="I6" s="110">
-        <v>11731</v>
-      </c>
-      <c r="J6" s="110">
-        <v>13057</v>
-      </c>
-      <c r="K6" s="110">
-        <v>10534</v>
-      </c>
-      <c r="L6" s="110">
-        <v>14159</v>
-      </c>
-      <c r="M6" s="110">
-        <v>5370</v>
+      <c r="C6" s="110" t="n">
+        <v>6203.0</v>
+      </c>
+      <c r="D6" s="110" t="n">
+        <v>6816.0</v>
+      </c>
+      <c r="E6" s="110" t="n">
+        <v>8380.0</v>
+      </c>
+      <c r="F6" s="110" t="n">
+        <v>8163.0</v>
+      </c>
+      <c r="G6" s="110" t="n">
+        <v>8678.0</v>
+      </c>
+      <c r="H6" s="110" t="n">
+        <v>22735.0</v>
+      </c>
+      <c r="I6" s="110" t="n">
+        <v>11731.0</v>
+      </c>
+      <c r="J6" s="110" t="n">
+        <v>13057.0</v>
+      </c>
+      <c r="K6" s="110" t="n">
+        <v>10534.0</v>
+      </c>
+      <c r="L6" s="110" t="n">
+        <v>14159.0</v>
+      </c>
+      <c r="M6" s="110" t="n">
+        <v>5370.0</v>
       </c>
       <c r="Q6" s="107"/>
     </row>
@@ -22442,45 +22451,45 @@
         <v>27</v>
       </c>
       <c r="C7" s="113"/>
-      <c r="D7" s="121">
+      <c r="D7" s="121" t="n">
         <f t="shared" ref="D7" si="1">(D6-C6)/C6</f>
-        <v>9.8823150088666781E-2</v>
-      </c>
-      <c r="E7" s="121">
+        <v>0.09882315008866678</v>
+      </c>
+      <c r="E7" s="121" t="n">
         <f t="shared" ref="E7" si="2">(E6-D6)/D6</f>
         <v>0.22946009389671362</v>
       </c>
-      <c r="F7" s="121">
+      <c r="F7" s="121" t="n">
         <f t="shared" ref="F7" si="3">(F6-E6)/E6</f>
-        <v>-2.5894988066825775E-2</v>
-      </c>
-      <c r="G7" s="121">
+        <v>-0.025894988066825775</v>
+      </c>
+      <c r="G7" s="121" t="n">
         <f t="shared" ref="G7" si="4">(G6-F6)/F6</f>
-        <v>6.3089550410388343E-2</v>
-      </c>
-      <c r="H7" s="121">
+        <v>0.06308955041038834</v>
+      </c>
+      <c r="H7" s="121" t="n">
         <f t="shared" ref="H7" si="5">(H6-G6)/G6</f>
         <v>1.6198432818621802</v>
       </c>
-      <c r="I7" s="121">
+      <c r="I7" s="121" t="n">
         <f t="shared" ref="I7" si="6">(I6-H6)/H6</f>
         <v>-0.48401143611172204</v>
       </c>
-      <c r="J7" s="121">
+      <c r="J7" s="121" t="n">
         <f t="shared" ref="J7" si="7">(J6-I6)/I6</f>
         <v>0.11303384195720739</v>
       </c>
-      <c r="K7" s="121">
+      <c r="K7" s="121" t="n">
         <f t="shared" ref="K7" si="8">(K6-J6)/J6</f>
         <v>-0.1932296852263154</v>
       </c>
-      <c r="L7" s="121">
+      <c r="L7" s="121" t="n">
         <f t="shared" ref="L7" si="9">(L6-K6)/K6</f>
-        <v>0.34412378963356749</v>
-      </c>
-      <c r="M7" s="121">
+        <v>0.3441237896335675</v>
+      </c>
+      <c r="M7" s="121" t="n">
         <f t="shared" ref="M7" si="10">(M6-L6)/L6</f>
-        <v>-0.62073592767850838</v>
+        <v>-0.6207359276785084</v>
       </c>
       <c r="Q7" s="107"/>
     </row>
@@ -22501,38 +22510,38 @@
       <c r="B9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="110">
-        <v>19977</v>
-      </c>
-      <c r="D9" s="110">
-        <v>21434</v>
-      </c>
-      <c r="E9" s="110">
-        <v>22923</v>
-      </c>
-      <c r="F9" s="110">
-        <v>24678</v>
-      </c>
-      <c r="G9" s="110">
-        <v>26257</v>
-      </c>
-      <c r="H9" s="110">
-        <v>27706</v>
-      </c>
-      <c r="I9" s="110">
-        <v>29685</v>
-      </c>
-      <c r="J9" s="110">
-        <v>34078</v>
-      </c>
-      <c r="K9" s="110">
-        <v>30593</v>
-      </c>
-      <c r="L9" s="110">
-        <v>34621</v>
-      </c>
-      <c r="M9" s="110">
-        <v>27862</v>
+      <c r="C9" s="110" t="n">
+        <v>19977.0</v>
+      </c>
+      <c r="D9" s="110" t="n">
+        <v>21434.0</v>
+      </c>
+      <c r="E9" s="110" t="n">
+        <v>22923.0</v>
+      </c>
+      <c r="F9" s="110" t="n">
+        <v>24678.0</v>
+      </c>
+      <c r="G9" s="110" t="n">
+        <v>26257.0</v>
+      </c>
+      <c r="H9" s="110" t="n">
+        <v>27706.0</v>
+      </c>
+      <c r="I9" s="110" t="n">
+        <v>29685.0</v>
+      </c>
+      <c r="J9" s="110" t="n">
+        <v>34078.0</v>
+      </c>
+      <c r="K9" s="110" t="n">
+        <v>30593.0</v>
+      </c>
+      <c r="L9" s="110" t="n">
+        <v>34621.0</v>
+      </c>
+      <c r="M9" s="110" t="n">
+        <v>27862.0</v>
       </c>
       <c r="Q9" s="107"/>
     </row>
@@ -22541,43 +22550,43 @@
         <v>27</v>
       </c>
       <c r="C10" s="113"/>
-      <c r="D10" s="121">
+      <c r="D10" s="121" t="n">
         <f t="shared" ref="D10" si="11">(D9-C9)/C9</f>
-        <v>7.2933873955048301E-2</v>
-      </c>
-      <c r="E10" s="121">
+        <v>0.0729338739550483</v>
+      </c>
+      <c r="E10" s="121" t="n">
         <f t="shared" ref="E10" si="12">(E9-D9)/D9</f>
-        <v>6.9469067836148174E-2</v>
-      </c>
-      <c r="F10" s="121">
+        <v>0.06946906783614817</v>
+      </c>
+      <c r="F10" s="121" t="n">
         <f t="shared" ref="F10" si="13">(F9-E9)/E9</f>
-        <v>7.656065959952886E-2</v>
-      </c>
-      <c r="G10" s="121">
+        <v>0.07656065959952886</v>
+      </c>
+      <c r="G10" s="121" t="n">
         <f t="shared" ref="G10" si="14">(G9-F9)/F9</f>
-        <v>6.398411540643488E-2</v>
-      </c>
-      <c r="H10" s="121">
+        <v>0.06398411540643488</v>
+      </c>
+      <c r="H10" s="121" t="n">
         <f t="shared" ref="H10" si="15">(H9-G9)/G9</f>
-        <v>5.5185283924286857E-2</v>
-      </c>
-      <c r="I10" s="121">
+        <v>0.05518528392428686</v>
+      </c>
+      <c r="I10" s="121" t="n">
         <f t="shared" ref="I10" si="16">(I9-H9)/H9</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="J10" s="121">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="J10" s="121" t="n">
         <f t="shared" ref="J10" si="17">(J9-I9)/I9</f>
         <v>0.14798719892201448</v>
       </c>
-      <c r="K10" s="121">
+      <c r="K10" s="121" t="n">
         <f t="shared" ref="K10" si="18">(K9-J9)/J9</f>
         <v>-0.10226539116145314</v>
       </c>
-      <c r="L10" s="121">
+      <c r="L10" s="121" t="n">
         <f t="shared" ref="L10" si="19">(L9-K9)/K9</f>
         <v>0.13166410616807767</v>
       </c>
-      <c r="M10" s="121">
+      <c r="M10" s="121" t="n">
         <f t="shared" ref="M10" si="20">(M9-L9)/L9</f>
         <v>-0.19522832962652725</v>
       </c>
@@ -22592,38 +22601,38 @@
       <c r="B12" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="110">
-        <v>5434</v>
-      </c>
-      <c r="D12" s="110">
-        <v>5330</v>
-      </c>
-      <c r="E12" s="110">
-        <v>5240</v>
-      </c>
-      <c r="F12" s="110">
-        <v>5035</v>
-      </c>
-      <c r="G12" s="110">
-        <v>4875</v>
-      </c>
-      <c r="H12" s="110">
-        <v>4786</v>
-      </c>
-      <c r="I12" s="110">
-        <v>4640</v>
-      </c>
-      <c r="J12" s="110">
-        <v>4610</v>
-      </c>
-      <c r="K12" s="110">
-        <v>4624</v>
-      </c>
-      <c r="L12" s="110">
-        <v>4654</v>
-      </c>
-      <c r="M12" s="110">
-        <v>4430</v>
+      <c r="C12" s="110" t="n">
+        <v>5434.0</v>
+      </c>
+      <c r="D12" s="110" t="n">
+        <v>5330.0</v>
+      </c>
+      <c r="E12" s="110" t="n">
+        <v>5240.0</v>
+      </c>
+      <c r="F12" s="110" t="n">
+        <v>5035.0</v>
+      </c>
+      <c r="G12" s="110" t="n">
+        <v>4875.0</v>
+      </c>
+      <c r="H12" s="110" t="n">
+        <v>4786.0</v>
+      </c>
+      <c r="I12" s="110" t="n">
+        <v>4640.0</v>
+      </c>
+      <c r="J12" s="110" t="n">
+        <v>4610.0</v>
+      </c>
+      <c r="K12" s="110" t="n">
+        <v>4624.0</v>
+      </c>
+      <c r="L12" s="110" t="n">
+        <v>4654.0</v>
+      </c>
+      <c r="M12" s="110" t="n">
+        <v>4430.0</v>
       </c>
       <c r="Q12" s="107"/>
     </row>
@@ -22632,45 +22641,45 @@
         <v>27</v>
       </c>
       <c r="C13" s="113"/>
-      <c r="D13" s="121">
+      <c r="D13" s="121" t="n">
         <f t="shared" ref="D13" si="21">(D12-C12)/C12</f>
-        <v>-1.9138755980861243E-2</v>
-      </c>
-      <c r="E13" s="121">
+        <v>-0.019138755980861243</v>
+      </c>
+      <c r="E13" s="121" t="n">
         <f t="shared" ref="E13" si="22">(E12-D12)/D12</f>
-        <v>-1.6885553470919325E-2</v>
-      </c>
-      <c r="F13" s="121">
+        <v>-0.016885553470919325</v>
+      </c>
+      <c r="F13" s="121" t="n">
         <f t="shared" ref="F13" si="23">(F12-E12)/E12</f>
-        <v>-3.9122137404580155E-2</v>
-      </c>
-      <c r="G13" s="121">
+        <v>-0.039122137404580155</v>
+      </c>
+      <c r="G13" s="121" t="n">
         <f t="shared" ref="G13" si="24">(G12-F12)/F12</f>
-        <v>-3.1777557100297914E-2</v>
-      </c>
-      <c r="H13" s="121">
+        <v>-0.031777557100297914</v>
+      </c>
+      <c r="H13" s="121" t="n">
         <f t="shared" ref="H13" si="25">(H12-G12)/G12</f>
-        <v>-1.8256410256410255E-2</v>
-      </c>
-      <c r="I13" s="121">
+        <v>-0.018256410256410255</v>
+      </c>
+      <c r="I13" s="121" t="n">
         <f t="shared" ref="I13" si="26">(I12-H12)/H12</f>
-        <v>-3.0505641454241537E-2</v>
-      </c>
-      <c r="J13" s="121">
+        <v>-0.030505641454241537</v>
+      </c>
+      <c r="J13" s="121" t="n">
         <f t="shared" ref="J13" si="27">(J12-I12)/I12</f>
-        <v>-6.4655172413793103E-3</v>
-      </c>
-      <c r="K13" s="121">
+        <v>-0.00646551724137931</v>
+      </c>
+      <c r="K13" s="121" t="n">
         <f t="shared" ref="K13" si="28">(K12-J12)/J12</f>
-        <v>3.036876355748373E-3</v>
-      </c>
-      <c r="L13" s="121">
+        <v>0.003036876355748373</v>
+      </c>
+      <c r="L13" s="121" t="n">
         <f t="shared" ref="L13" si="29">(L12-K12)/K12</f>
-        <v>6.487889273356401E-3</v>
-      </c>
-      <c r="M13" s="121">
+        <v>0.006487889273356401</v>
+      </c>
+      <c r="M13" s="121" t="n">
         <f t="shared" ref="M13" si="30">(M12-L12)/L12</f>
-        <v>-4.8130640309411256E-2</v>
+        <v>-0.048130640309411256</v>
       </c>
       <c r="Q13" s="107"/>
     </row>
@@ -22683,37 +22692,37 @@
       <c r="B15" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="110">
+      <c r="C15" s="110" t="n">
         <v>1.1399999856948853</v>
       </c>
-      <c r="D15" s="110">
+      <c r="D15" s="110" t="n">
         <v>1.2799999713897705</v>
       </c>
-      <c r="E15" s="110">
-        <v>1.6000000238418579</v>
-      </c>
-      <c r="F15" s="110">
+      <c r="E15" s="110" t="n">
+        <v>1.600000023841858</v>
+      </c>
+      <c r="F15" s="110" t="n">
         <v>1.6200000047683716</v>
       </c>
-      <c r="G15" s="110">
+      <c r="G15" s="110" t="n">
         <v>1.7799999713897705</v>
       </c>
-      <c r="H15" s="110">
+      <c r="H15" s="110" t="n">
         <v>4.75</v>
       </c>
-      <c r="I15" s="110">
+      <c r="I15" s="110" t="n">
         <v>2.5299999713897705</v>
       </c>
-      <c r="J15" s="110">
+      <c r="J15" s="110" t="n">
         <v>2.8299999237060547</v>
       </c>
-      <c r="K15" s="110">
+      <c r="K15" s="110" t="n">
         <v>2.2799999713897705</v>
       </c>
-      <c r="L15" s="110">
+      <c r="L15" s="110" t="n">
         <v>3.0399999618530273</v>
       </c>
-      <c r="M15" s="110">
+      <c r="M15" s="110" t="n">
         <v>1.2100000381469727</v>
       </c>
       <c r="Q15" s="107"/>
@@ -22722,45 +22731,45 @@
       <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="121">
+      <c r="D16" s="121" t="n">
         <f t="shared" ref="D16" si="31">(D15-C15)/C15</f>
         <v>0.12280700653653749</v>
       </c>
-      <c r="E16" s="121">
+      <c r="E16" s="121" t="n">
         <f t="shared" ref="E16" si="32">(E15-D15)/D15</f>
         <v>0.25000004656612956</v>
       </c>
-      <c r="F16" s="121">
+      <c r="F16" s="121" t="n">
         <f t="shared" ref="F16" si="33">(F15-E15)/E15</f>
-        <v>1.2499987892806711E-2</v>
-      </c>
-      <c r="G16" s="121">
+        <v>0.012499987892806711</v>
+      </c>
+      <c r="G16" s="121" t="n">
         <f t="shared" ref="G16" si="34">(G15-F15)/F15</f>
-        <v>9.8765411203980844E-2</v>
-      </c>
-      <c r="H16" s="121">
+        <v>0.09876541120398084</v>
+      </c>
+      <c r="H16" s="121" t="n">
         <f t="shared" ref="H16" si="35">(H15-G15)/G15</f>
         <v>1.6685393687345647</v>
       </c>
-      <c r="I16" s="121">
+      <c r="I16" s="121" t="n">
         <f t="shared" ref="I16" si="36">(I15-H15)/H15</f>
-        <v>-0.46736842707583792</v>
-      </c>
-      <c r="J16" s="121">
+        <v>-0.4673684270758379</v>
+      </c>
+      <c r="J16" s="121" t="n">
         <f t="shared" ref="J16" si="37">(J15-I15)/I15</f>
         <v>0.11857705759241143</v>
       </c>
-      <c r="K16" s="121">
+      <c r="K16" s="121" t="n">
         <f t="shared" ref="K16" si="38">(K15-J15)/J15</f>
-        <v>-0.19434627814266051</v>
-      </c>
-      <c r="L16" s="121">
+        <v>-0.1943462781426605</v>
+      </c>
+      <c r="L16" s="121" t="n">
         <f t="shared" ref="L16" si="39">(L15-K15)/K15</f>
-        <v>0.33333333333333348</v>
-      </c>
-      <c r="M16" s="121">
+        <v>0.3333333333333335</v>
+      </c>
+      <c r="M16" s="121" t="n">
         <f t="shared" ref="M16" si="40">(M15-L15)/L15</f>
-        <v>-0.60197366666760577</v>
+        <v>-0.6019736666676058</v>
       </c>
       <c r="Q16" s="107"/>
     </row>
@@ -22808,38 +22817,38 @@
       <c r="B20" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="110">
-        <v>9140</v>
-      </c>
-      <c r="D20" s="128">
-        <v>5660</v>
-      </c>
-      <c r="E20" s="128">
-        <v>9482</v>
-      </c>
-      <c r="F20" s="128">
-        <v>10808</v>
-      </c>
-      <c r="G20" s="128">
-        <v>10106</v>
-      </c>
-      <c r="H20" s="128">
-        <v>11222</v>
-      </c>
-      <c r="I20" s="128">
-        <v>14063</v>
-      </c>
-      <c r="J20" s="128">
-        <v>14628</v>
-      </c>
-      <c r="K20" s="128">
-        <v>14060</v>
-      </c>
-      <c r="L20" s="128">
-        <v>18996</v>
-      </c>
-      <c r="M20" s="128">
-        <v>15457</v>
+      <c r="C20" s="110" t="n">
+        <v>9140.0</v>
+      </c>
+      <c r="D20" s="128" t="n">
+        <v>5660.0</v>
+      </c>
+      <c r="E20" s="128" t="n">
+        <v>9482.0</v>
+      </c>
+      <c r="F20" s="128" t="n">
+        <v>10808.0</v>
+      </c>
+      <c r="G20" s="128" t="n">
+        <v>10106.0</v>
+      </c>
+      <c r="H20" s="128" t="n">
+        <v>11222.0</v>
+      </c>
+      <c r="I20" s="128" t="n">
+        <v>14063.0</v>
+      </c>
+      <c r="J20" s="128" t="n">
+        <v>14628.0</v>
+      </c>
+      <c r="K20" s="128" t="n">
+        <v>14060.0</v>
+      </c>
+      <c r="L20" s="128" t="n">
+        <v>18996.0</v>
+      </c>
+      <c r="M20" s="128" t="n">
+        <v>15457.0</v>
       </c>
       <c r="O20" s="107"/>
       <c r="P20" s="107"/>
@@ -22868,42 +22877,43 @@
       <c r="B21" s="31" t="s">
         <v>27</v>
       </c>
+      <c r="C21" s="110"/>
       <c r="D21" s="129"/>
-      <c r="E21" s="131">
+      <c r="E21" s="131" t="n">
         <f t="shared" ref="E21" si="41">(E20-D20)/D20</f>
-        <v>0.67526501766784452</v>
-      </c>
-      <c r="F21" s="131">
+        <v>0.6752650176678445</v>
+      </c>
+      <c r="F21" s="131" t="n">
         <f t="shared" ref="F21" si="42">(F20-E20)/E20</f>
         <v>0.13984391478591016</v>
       </c>
-      <c r="G21" s="131">
+      <c r="G21" s="131" t="n">
         <f t="shared" ref="G21" si="43">(G20-F20)/F20</f>
-        <v>-6.4951887490747595E-2</v>
-      </c>
-      <c r="H21" s="131">
+        <v>-0.0649518874907476</v>
+      </c>
+      <c r="H21" s="131" t="n">
         <f t="shared" ref="H21" si="44">(H20-G20)/G20</f>
         <v>0.11042944785276074</v>
       </c>
-      <c r="I21" s="131">
+      <c r="I21" s="131" t="n">
         <f t="shared" ref="I21" si="45">(I20-H20)/H20</f>
-        <v>0.25316342897879168</v>
-      </c>
-      <c r="J21" s="131">
+        <v>0.2531634289787917</v>
+      </c>
+      <c r="J21" s="131" t="n">
         <f t="shared" ref="J21" si="46">(J20-I20)/I20</f>
-        <v>4.0176349285358744E-2</v>
-      </c>
-      <c r="K21" s="131">
+        <v>0.040176349285358744</v>
+      </c>
+      <c r="K21" s="131" t="n">
         <f t="shared" ref="K21" si="47">(K20-J20)/J20</f>
-        <v>-3.8829641782882146E-2</v>
-      </c>
-      <c r="L21" s="131">
+        <v>-0.038829641782882146</v>
+      </c>
+      <c r="L21" s="131" t="n">
         <f t="shared" ref="L21" si="48">(L20-K20)/K20</f>
-        <v>0.35106685633001422</v>
-      </c>
-      <c r="M21" s="131">
+        <v>0.3510668563300142</v>
+      </c>
+      <c r="M21" s="131" t="n">
         <f t="shared" ref="M21" si="49">(M20-L20)/L20</f>
-        <v>-0.18630237944830491</v>
+        <v>-0.1863023794483049</v>
       </c>
       <c r="O21" s="107"/>
       <c r="P21" s="107"/>
@@ -22966,38 +22976,38 @@
       <c r="B23" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="113">
-        <v>1608</v>
-      </c>
-      <c r="D23" s="130">
-        <v>1964</v>
-      </c>
-      <c r="E23" s="130">
-        <v>2254</v>
-      </c>
-      <c r="F23" s="130">
-        <v>2437</v>
-      </c>
-      <c r="G23" s="130">
-        <v>2601</v>
-      </c>
-      <c r="H23" s="130">
-        <v>2883</v>
-      </c>
-      <c r="I23" s="130">
-        <v>3352</v>
-      </c>
-      <c r="J23" s="130">
-        <v>3735</v>
-      </c>
-      <c r="K23" s="130">
-        <v>4140</v>
-      </c>
-      <c r="L23" s="130">
-        <v>4532</v>
-      </c>
-      <c r="M23" s="130">
-        <v>4741</v>
+      <c r="C23" s="113" t="n">
+        <v>1608.0</v>
+      </c>
+      <c r="D23" s="130" t="n">
+        <v>1964.0</v>
+      </c>
+      <c r="E23" s="130" t="n">
+        <v>2254.0</v>
+      </c>
+      <c r="F23" s="130" t="n">
+        <v>2437.0</v>
+      </c>
+      <c r="G23" s="130" t="n">
+        <v>2601.0</v>
+      </c>
+      <c r="H23" s="130" t="n">
+        <v>2883.0</v>
+      </c>
+      <c r="I23" s="130" t="n">
+        <v>3352.0</v>
+      </c>
+      <c r="J23" s="130" t="n">
+        <v>3735.0</v>
+      </c>
+      <c r="K23" s="130" t="n">
+        <v>4140.0</v>
+      </c>
+      <c r="L23" s="130" t="n">
+        <v>4532.0</v>
+      </c>
+      <c r="M23" s="130" t="n">
+        <v>4741.0</v>
       </c>
       <c r="O23" s="107"/>
       <c r="P23" s="107"/>
@@ -23023,45 +23033,45 @@
       <c r="AJ23" s="107"/>
     </row>
     <row r="24" spans="2:36">
-      <c r="D24" s="121">
+      <c r="D24" s="121" t="n">
         <f t="shared" ref="D24" si="50">(D23-C23)/C23</f>
         <v>0.22139303482587064</v>
       </c>
-      <c r="E24" s="121">
+      <c r="E24" s="121" t="n">
         <f t="shared" ref="E24" si="51">(E23-D23)/D23</f>
         <v>0.14765784114052954</v>
       </c>
-      <c r="F24" s="121">
+      <c r="F24" s="121" t="n">
         <f t="shared" ref="F24" si="52">(F23-E23)/E23</f>
-        <v>8.1188997338065658E-2</v>
-      </c>
-      <c r="G24" s="121">
+        <v>0.08118899733806566</v>
+      </c>
+      <c r="G24" s="121" t="n">
         <f t="shared" ref="G24" si="53">(G23-F23)/F23</f>
-        <v>6.7295855560114901E-2</v>
-      </c>
-      <c r="H24" s="121">
+        <v>0.0672958555601149</v>
+      </c>
+      <c r="H24" s="121" t="n">
         <f t="shared" ref="H24" si="54">(H23-G23)/G23</f>
         <v>0.10841983852364476</v>
       </c>
-      <c r="I24" s="121">
+      <c r="I24" s="121" t="n">
         <f t="shared" ref="I24" si="55">(I23-H23)/H23</f>
         <v>0.16267776621574748</v>
       </c>
-      <c r="J24" s="121">
+      <c r="J24" s="121" t="n">
         <f t="shared" ref="J24" si="56">(J23-I23)/I23</f>
         <v>0.11426014319809069</v>
       </c>
-      <c r="K24" s="121">
+      <c r="K24" s="121" t="n">
         <f t="shared" ref="K24" si="57">(K23-J23)/J23</f>
         <v>0.10843373493975904</v>
       </c>
-      <c r="L24" s="121">
+      <c r="L24" s="121" t="n">
         <f t="shared" ref="L24" si="58">(L23-K23)/K23</f>
-        <v>9.4685990338164258E-2</v>
-      </c>
-      <c r="M24" s="121">
+        <v>0.09468599033816426</v>
+      </c>
+      <c r="M24" s="121" t="n">
         <f t="shared" ref="M24" si="59">(M23-L23)/L23</f>
-        <v>4.6116504854368932E-2</v>
+        <v>0.04611650485436893</v>
       </c>
       <c r="O24" s="107"/>
       <c r="P24" s="107"/>
@@ -23198,38 +23208,38 @@
       <c r="B28" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="110">
-        <v>19991</v>
-      </c>
-      <c r="D28" s="110">
-        <v>14075</v>
-      </c>
-      <c r="E28" s="110">
-        <v>13531</v>
-      </c>
-      <c r="F28" s="110">
-        <v>12303</v>
-      </c>
-      <c r="G28" s="110">
-        <v>16361</v>
-      </c>
-      <c r="H28" s="110">
-        <v>16343</v>
-      </c>
-      <c r="I28" s="110">
-        <v>21848</v>
-      </c>
-      <c r="J28" s="110">
-        <v>25392</v>
-      </c>
-      <c r="K28" s="110">
-        <v>26741</v>
-      </c>
-      <c r="L28" s="110">
-        <v>24807</v>
-      </c>
-      <c r="M28" s="110">
-        <v>21826</v>
+      <c r="C28" s="110" t="n">
+        <v>19991.0</v>
+      </c>
+      <c r="D28" s="110" t="n">
+        <v>14075.0</v>
+      </c>
+      <c r="E28" s="110" t="n">
+        <v>13531.0</v>
+      </c>
+      <c r="F28" s="110" t="n">
+        <v>12303.0</v>
+      </c>
+      <c r="G28" s="110" t="n">
+        <v>16361.0</v>
+      </c>
+      <c r="H28" s="110" t="n">
+        <v>16343.0</v>
+      </c>
+      <c r="I28" s="110" t="n">
+        <v>21848.0</v>
+      </c>
+      <c r="J28" s="110" t="n">
+        <v>25392.0</v>
+      </c>
+      <c r="K28" s="110" t="n">
+        <v>26741.0</v>
+      </c>
+      <c r="L28" s="110" t="n">
+        <v>24807.0</v>
+      </c>
+      <c r="M28" s="110" t="n">
+        <v>21826.0</v>
       </c>
       <c r="O28" s="107"/>
       <c r="P28" s="107"/>
@@ -23259,43 +23269,43 @@
         <v>27</v>
       </c>
       <c r="C29" s="113"/>
-      <c r="D29" s="121">
+      <c r="D29" s="121" t="n">
         <f t="shared" ref="D29" si="60">(D28-C28)/C28</f>
         <v>-0.2959331699264669</v>
       </c>
-      <c r="E29" s="121">
+      <c r="E29" s="121" t="n">
         <f t="shared" ref="E29" si="61">(E28-D28)/D28</f>
-        <v>-3.8650088809946713E-2</v>
-      </c>
-      <c r="F29" s="121">
+        <v>-0.03865008880994671</v>
+      </c>
+      <c r="F29" s="121" t="n">
         <f t="shared" ref="F29" si="62">(F28-E28)/E28</f>
-        <v>-9.0754563594708446E-2</v>
-      </c>
-      <c r="G29" s="121">
+        <v>-0.09075456359470845</v>
+      </c>
+      <c r="G29" s="121" t="n">
         <f t="shared" ref="G29" si="63">(G28-F28)/F28</f>
-        <v>0.32983825083313012</v>
-      </c>
-      <c r="H29" s="121">
+        <v>0.3298382508331301</v>
+      </c>
+      <c r="H29" s="121" t="n">
         <f t="shared" ref="H29" si="64">(H28-G28)/G28</f>
-        <v>-1.1001772507792922E-3</v>
-      </c>
-      <c r="I29" s="121">
+        <v>-0.0011001772507792922</v>
+      </c>
+      <c r="I29" s="121" t="n">
         <f t="shared" ref="I29" si="65">(I28-H28)/H28</f>
-        <v>0.33684146117603869</v>
-      </c>
-      <c r="J29" s="121">
+        <v>0.3368414611760387</v>
+      </c>
+      <c r="J29" s="121" t="n">
         <f t="shared" ref="J29" si="66">(J28-I28)/I28</f>
         <v>0.16221164408641522</v>
       </c>
-      <c r="K29" s="121">
+      <c r="K29" s="121" t="n">
         <f t="shared" ref="K29" si="67">(K28-J28)/J28</f>
-        <v>5.3126969124133588E-2</v>
-      </c>
-      <c r="L29" s="121">
+        <v>0.05312696912413359</v>
+      </c>
+      <c r="L29" s="121" t="n">
         <f t="shared" ref="L29" si="68">(L28-K28)/K28</f>
-        <v>-7.2323398526607088E-2</v>
-      </c>
-      <c r="M29" s="121">
+        <v>-0.07232339852660709</v>
+      </c>
+      <c r="M29" s="121" t="n">
         <f t="shared" ref="M29" si="69">(M28-L28)/L28</f>
         <v>-0.12016769460232998</v>
       </c>
@@ -23350,38 +23360,38 @@
       <c r="B31" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="110">
-        <v>144980</v>
-      </c>
-      <c r="D31" s="110">
-        <v>144738</v>
-      </c>
-      <c r="E31" s="110">
-        <v>145655</v>
-      </c>
-      <c r="F31" s="110">
-        <v>154271</v>
-      </c>
-      <c r="G31" s="110">
-        <v>164139</v>
-      </c>
-      <c r="H31" s="110">
-        <v>171119</v>
-      </c>
-      <c r="I31" s="110">
-        <v>229836</v>
-      </c>
-      <c r="J31" s="110">
-        <v>238022</v>
-      </c>
-      <c r="K31" s="110">
-        <v>247128</v>
-      </c>
-      <c r="L31" s="110">
-        <v>251098</v>
-      </c>
-      <c r="M31" s="110">
-        <v>235449</v>
+      <c r="C31" s="110" t="n">
+        <v>144980.0</v>
+      </c>
+      <c r="D31" s="110" t="n">
+        <v>144738.0</v>
+      </c>
+      <c r="E31" s="110" t="n">
+        <v>145655.0</v>
+      </c>
+      <c r="F31" s="110" t="n">
+        <v>154271.0</v>
+      </c>
+      <c r="G31" s="110" t="n">
+        <v>164139.0</v>
+      </c>
+      <c r="H31" s="110" t="n">
+        <v>171119.0</v>
+      </c>
+      <c r="I31" s="110" t="n">
+        <v>229836.0</v>
+      </c>
+      <c r="J31" s="110" t="n">
+        <v>238022.0</v>
+      </c>
+      <c r="K31" s="110" t="n">
+        <v>247128.0</v>
+      </c>
+      <c r="L31" s="110" t="n">
+        <v>251098.0</v>
+      </c>
+      <c r="M31" s="110" t="n">
+        <v>235449.0</v>
       </c>
       <c r="O31" s="107"/>
       <c r="P31" s="107"/>
@@ -23411,45 +23421,45 @@
         <v>27</v>
       </c>
       <c r="C32" s="113"/>
-      <c r="D32" s="121">
+      <c r="D32" s="121" t="n">
         <f t="shared" ref="D32" si="70">(D31-C31)/C31</f>
-        <v>-1.669195751138088E-3</v>
-      </c>
-      <c r="E32" s="121">
+        <v>-0.001669195751138088</v>
+      </c>
+      <c r="E32" s="121" t="n">
         <f t="shared" ref="E32" si="71">(E31-D31)/D31</f>
-        <v>6.3355856789509323E-3</v>
-      </c>
-      <c r="F32" s="121">
+        <v>0.006335585678950932</v>
+      </c>
+      <c r="F32" s="121" t="n">
         <f t="shared" ref="F32" si="72">(F31-E31)/E31</f>
-        <v>5.9153479111599329E-2</v>
-      </c>
-      <c r="G32" s="121">
+        <v>0.05915347911159933</v>
+      </c>
+      <c r="G32" s="121" t="n">
         <f t="shared" ref="G32" si="73">(G31-F31)/F31</f>
-        <v>6.3965359659300836E-2</v>
-      </c>
-      <c r="H32" s="121">
+        <v>0.06396535965930084</v>
+      </c>
+      <c r="H32" s="121" t="n">
         <f t="shared" ref="H32" si="74">(H31-G31)/G31</f>
-        <v>4.2524933135939663E-2</v>
-      </c>
-      <c r="I32" s="121">
+        <v>0.04252493313593966</v>
+      </c>
+      <c r="I32" s="121" t="n">
         <f t="shared" ref="I32" si="75">(I31-H31)/H31</f>
         <v>0.34313547881883366</v>
       </c>
-      <c r="J32" s="121">
+      <c r="J32" s="121" t="n">
         <f t="shared" ref="J32" si="76">(J31-I31)/I31</f>
-        <v>3.5616700603908875E-2</v>
-      </c>
-      <c r="K32" s="121">
+        <v>0.035616700603908875</v>
+      </c>
+      <c r="K32" s="121" t="n">
         <f t="shared" ref="K32" si="77">(K31-J31)/J31</f>
-        <v>3.8256967843308599E-2</v>
-      </c>
-      <c r="L32" s="121">
+        <v>0.0382569678433086</v>
+      </c>
+      <c r="L32" s="121" t="n">
         <f t="shared" ref="L32" si="78">(L31-K31)/K31</f>
-        <v>1.6064549545174969E-2</v>
-      </c>
-      <c r="M32" s="121">
+        <v>0.01606454954517497</v>
+      </c>
+      <c r="M32" s="121" t="n">
         <f t="shared" ref="M32" si="79">(M31-L31)/L31</f>
-        <v>-6.2322280543851402E-2</v>
+        <v>-0.0623222805438514</v>
       </c>
       <c r="O32" s="107"/>
       <c r="P32" s="107"/>
@@ -23503,45 +23513,45 @@
         <v>50</v>
       </c>
       <c r="C34" s="111"/>
-      <c r="D34" s="111">
+      <c r="D34" s="111" t="n">
         <f>D28+D31</f>
-        <v>158813</v>
-      </c>
-      <c r="E34" s="111">
+        <v>158813.0</v>
+      </c>
+      <c r="E34" s="111" t="n">
         <f t="shared" ref="E34:M34" si="80">E28+E31</f>
-        <v>159186</v>
-      </c>
-      <c r="F34" s="111">
+        <v>159186.0</v>
+      </c>
+      <c r="F34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>166574</v>
-      </c>
-      <c r="G34" s="111">
+        <v>166574.0</v>
+      </c>
+      <c r="G34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>180500</v>
-      </c>
-      <c r="H34" s="111">
+        <v>180500.0</v>
+      </c>
+      <c r="H34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>187462</v>
-      </c>
-      <c r="I34" s="111">
+        <v>187462.0</v>
+      </c>
+      <c r="I34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>251684</v>
-      </c>
-      <c r="J34" s="111">
+        <v>251684.0</v>
+      </c>
+      <c r="J34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>263414</v>
-      </c>
-      <c r="K34" s="111">
+        <v>263414.0</v>
+      </c>
+      <c r="K34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>273869</v>
-      </c>
-      <c r="L34" s="111">
+        <v>273869.0</v>
+      </c>
+      <c r="L34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>275905</v>
-      </c>
-      <c r="M34" s="111">
+        <v>275905.0</v>
+      </c>
+      <c r="M34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>257275</v>
+        <v>257275.0</v>
       </c>
       <c r="O34" s="107"/>
       <c r="P34" s="107"/>
@@ -23594,38 +23604,38 @@
       <c r="B36" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="113">
-        <v>16714</v>
-      </c>
-      <c r="D36" s="118">
-        <v>18912</v>
-      </c>
-      <c r="E36" s="110">
-        <v>17410</v>
-      </c>
-      <c r="F36" s="110">
-        <v>18178</v>
-      </c>
-      <c r="G36" s="110">
-        <v>21535</v>
-      </c>
-      <c r="H36" s="110">
-        <v>21993</v>
-      </c>
-      <c r="I36" s="110">
-        <v>27603</v>
-      </c>
-      <c r="J36" s="110">
-        <v>30292</v>
-      </c>
-      <c r="K36" s="110">
-        <v>28796</v>
-      </c>
-      <c r="L36" s="110">
-        <v>29348</v>
-      </c>
-      <c r="M36" s="110">
-        <v>27887</v>
+      <c r="C36" s="113" t="n">
+        <v>16714.0</v>
+      </c>
+      <c r="D36" s="118" t="n">
+        <v>18912.0</v>
+      </c>
+      <c r="E36" s="110" t="n">
+        <v>17410.0</v>
+      </c>
+      <c r="F36" s="110" t="n">
+        <v>18178.0</v>
+      </c>
+      <c r="G36" s="110" t="n">
+        <v>21535.0</v>
+      </c>
+      <c r="H36" s="110" t="n">
+        <v>21993.0</v>
+      </c>
+      <c r="I36" s="110" t="n">
+        <v>27603.0</v>
+      </c>
+      <c r="J36" s="110" t="n">
+        <v>30292.0</v>
+      </c>
+      <c r="K36" s="110" t="n">
+        <v>28796.0</v>
+      </c>
+      <c r="L36" s="110" t="n">
+        <v>29348.0</v>
+      </c>
+      <c r="M36" s="110" t="n">
+        <v>27887.0</v>
       </c>
       <c r="O36" s="107"/>
       <c r="P36" s="107"/>
@@ -23655,45 +23665,45 @@
         <v>27</v>
       </c>
       <c r="C37" s="113"/>
-      <c r="D37" s="121">
+      <c r="D37" s="121" t="n">
         <f t="shared" ref="D37" si="81">(D36-C36)/C36</f>
         <v>0.13150652147899963</v>
       </c>
-      <c r="E37" s="121">
+      <c r="E37" s="121" t="n">
         <f t="shared" ref="E37" si="82">(E36-D36)/D36</f>
-        <v>-7.9420473773265651E-2</v>
-      </c>
-      <c r="F37" s="121">
+        <v>-0.07942047377326565</v>
+      </c>
+      <c r="F37" s="121" t="n">
         <f t="shared" ref="F37" si="83">(F36-E36)/E36</f>
-        <v>4.4112578977599078E-2</v>
-      </c>
-      <c r="G37" s="121">
+        <v>0.04411257897759908</v>
+      </c>
+      <c r="G37" s="121" t="n">
         <f t="shared" ref="G37" si="84">(G36-F36)/F36</f>
         <v>0.18467378149411376</v>
       </c>
-      <c r="H37" s="121">
+      <c r="H37" s="121" t="n">
         <f t="shared" ref="H37" si="85">(H36-G36)/G36</f>
-        <v>2.1267703738100767E-2</v>
-      </c>
-      <c r="I37" s="121">
+        <v>0.021267703738100767</v>
+      </c>
+      <c r="I37" s="121" t="n">
         <f t="shared" ref="I37" si="86">(I36-H36)/H36</f>
-        <v>0.25508116218796889</v>
-      </c>
-      <c r="J37" s="121">
+        <v>0.2550811621879689</v>
+      </c>
+      <c r="J37" s="121" t="n">
         <f t="shared" ref="J37" si="87">(J36-I36)/I36</f>
-        <v>9.7416947433250009E-2</v>
-      </c>
-      <c r="K37" s="121">
+        <v>0.09741694743325001</v>
+      </c>
+      <c r="K37" s="121" t="n">
         <f t="shared" ref="K37" si="88">(K36-J36)/J36</f>
-        <v>-4.9385976495444343E-2</v>
-      </c>
-      <c r="L37" s="121">
+        <v>-0.04938597649544434</v>
+      </c>
+      <c r="L37" s="121" t="n">
         <f t="shared" ref="L37" si="89">(L36-K36)/K36</f>
-        <v>1.9169329073482427E-2</v>
-      </c>
-      <c r="M37" s="121">
+        <v>0.019169329073482427</v>
+      </c>
+      <c r="M37" s="121" t="n">
         <f t="shared" ref="M37" si="90">(M36-L36)/L36</f>
-        <v>-4.9781927218209079E-2</v>
+        <v>-0.04978192721820908</v>
       </c>
       <c r="O37" s="107"/>
       <c r="P37" s="107"/>
@@ -23746,38 +23756,38 @@
       <c r="B39" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="113">
-        <v>98461</v>
-      </c>
-      <c r="D39" s="110">
-        <v>88843</v>
-      </c>
-      <c r="E39" s="110">
-        <v>88708</v>
-      </c>
-      <c r="F39" s="110">
-        <v>94418</v>
-      </c>
-      <c r="G39" s="110">
-        <v>102791</v>
-      </c>
-      <c r="H39" s="110">
-        <v>96010</v>
-      </c>
-      <c r="I39" s="110">
-        <v>151579</v>
-      </c>
-      <c r="J39" s="110">
-        <v>149248</v>
-      </c>
-      <c r="K39" s="110">
-        <v>153335</v>
-      </c>
-      <c r="L39" s="110">
-        <v>149068</v>
-      </c>
-      <c r="M39" s="110">
-        <v>147760</v>
+      <c r="C39" s="113" t="n">
+        <v>98461.0</v>
+      </c>
+      <c r="D39" s="110" t="n">
+        <v>88843.0</v>
+      </c>
+      <c r="E39" s="110" t="n">
+        <v>88708.0</v>
+      </c>
+      <c r="F39" s="110" t="n">
+        <v>94418.0</v>
+      </c>
+      <c r="G39" s="110" t="n">
+        <v>102791.0</v>
+      </c>
+      <c r="H39" s="110" t="n">
+        <v>96010.0</v>
+      </c>
+      <c r="I39" s="110" t="n">
+        <v>151579.0</v>
+      </c>
+      <c r="J39" s="110" t="n">
+        <v>149248.0</v>
+      </c>
+      <c r="K39" s="110" t="n">
+        <v>153335.0</v>
+      </c>
+      <c r="L39" s="110" t="n">
+        <v>149068.0</v>
+      </c>
+      <c r="M39" s="110" t="n">
+        <v>147760.0</v>
       </c>
       <c r="O39" s="107"/>
       <c r="P39" s="107"/>
@@ -23807,45 +23817,45 @@
         <v>27</v>
       </c>
       <c r="C40" s="113"/>
-      <c r="D40" s="121">
+      <c r="D40" s="121" t="n">
         <f t="shared" ref="D40" si="91">(D39-C39)/C39</f>
-        <v>-9.7683346705802296E-2</v>
-      </c>
-      <c r="E40" s="121">
+        <v>-0.0976833467058023</v>
+      </c>
+      <c r="E40" s="121" t="n">
         <f t="shared" ref="E40" si="92">(E39-D39)/D39</f>
-        <v>-1.519534459664802E-3</v>
-      </c>
-      <c r="F40" s="121">
+        <v>-0.001519534459664802</v>
+      </c>
+      <c r="F40" s="121" t="n">
         <f t="shared" ref="F40" si="93">(F39-E39)/E39</f>
-        <v>6.4368489876899485E-2</v>
-      </c>
-      <c r="G40" s="121">
+        <v>0.06436848987689948</v>
+      </c>
+      <c r="G40" s="121" t="n">
         <f t="shared" ref="G40" si="94">(G39-F39)/F39</f>
-        <v>8.8680124552521764E-2</v>
-      </c>
-      <c r="H40" s="121">
+        <v>0.08868012455252176</v>
+      </c>
+      <c r="H40" s="121" t="n">
         <f t="shared" ref="H40" si="95">(H39-G39)/G39</f>
-        <v>-6.5968810498973643E-2</v>
-      </c>
-      <c r="I40" s="121">
+        <v>-0.06596881049897364</v>
+      </c>
+      <c r="I40" s="121" t="n">
         <f t="shared" ref="I40" si="96">(I39-H39)/H39</f>
-        <v>0.57878346005624415</v>
-      </c>
-      <c r="J40" s="121">
+        <v>0.5787834600562441</v>
+      </c>
+      <c r="J40" s="121" t="n">
         <f t="shared" ref="J40" si="97">(J39-I39)/I39</f>
-        <v>-1.5378119660375118E-2</v>
-      </c>
-      <c r="K40" s="121">
+        <v>-0.015378119660375118</v>
+      </c>
+      <c r="K40" s="121" t="n">
         <f t="shared" ref="K40" si="98">(K39-J39)/J39</f>
-        <v>2.7383951543739279E-2</v>
-      </c>
-      <c r="L40" s="121">
+        <v>0.02738395154373928</v>
+      </c>
+      <c r="L40" s="121" t="n">
         <f t="shared" ref="L40" si="99">(L39-K39)/K39</f>
-        <v>-2.782795839175661E-2</v>
-      </c>
-      <c r="M40" s="121">
+        <v>-0.02782795839175661</v>
+      </c>
+      <c r="M40" s="121" t="n">
         <f t="shared" ref="M40" si="100">(M39-L39)/L39</f>
-        <v>-8.7745190114578587E-3</v>
+        <v>-0.008774519011457859</v>
       </c>
       <c r="O40" s="107"/>
       <c r="P40" s="107"/>
@@ -23901,45 +23911,45 @@
       <c r="C42" s="116">
         <v>1</v>
       </c>
-      <c r="D42" s="111">
+      <c r="D42" s="111" t="n">
         <f>D36+D39</f>
-        <v>107755</v>
-      </c>
-      <c r="E42" s="111">
+        <v>107755.0</v>
+      </c>
+      <c r="E42" s="111" t="n">
         <f t="shared" ref="E42:M42" si="101">E36+E39</f>
-        <v>106118</v>
-      </c>
-      <c r="F42" s="111">
+        <v>106118.0</v>
+      </c>
+      <c r="F42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>112596</v>
-      </c>
-      <c r="G42" s="111">
+        <v>112596.0</v>
+      </c>
+      <c r="G42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>124326</v>
-      </c>
-      <c r="H42" s="111">
+        <v>124326.0</v>
+      </c>
+      <c r="H42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>118003</v>
-      </c>
-      <c r="I42" s="111">
+        <v>118003.0</v>
+      </c>
+      <c r="I42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>179182</v>
-      </c>
-      <c r="J42" s="111">
+        <v>179182.0</v>
+      </c>
+      <c r="J42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>179540</v>
-      </c>
-      <c r="K42" s="111">
+        <v>179540.0</v>
+      </c>
+      <c r="K42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>182131</v>
-      </c>
-      <c r="L42" s="111">
+        <v>182131.0</v>
+      </c>
+      <c r="L42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>178416</v>
-      </c>
-      <c r="M42" s="111">
+        <v>178416.0</v>
+      </c>
+      <c r="M42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>175647</v>
+        <v>175647.0</v>
       </c>
       <c r="O42" s="107"/>
       <c r="P42" s="107"/>
@@ -23997,45 +24007,45 @@
       <c r="C44" s="134">
         <v>1</v>
       </c>
-      <c r="D44" s="134">
+      <c r="D44" s="134" t="n">
         <f>D34-D42</f>
-        <v>51058</v>
-      </c>
-      <c r="E44" s="134">
+        <v>51058.0</v>
+      </c>
+      <c r="E44" s="134" t="n">
         <f t="shared" ref="E44:M44" si="102">E34-E42</f>
-        <v>53068</v>
-      </c>
-      <c r="F44" s="134">
+        <v>53068.0</v>
+      </c>
+      <c r="F44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>53978</v>
-      </c>
-      <c r="G44" s="134">
+        <v>53978.0</v>
+      </c>
+      <c r="G44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>56174</v>
-      </c>
-      <c r="H44" s="134">
+        <v>56174.0</v>
+      </c>
+      <c r="H44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>69459</v>
-      </c>
-      <c r="I44" s="134">
+        <v>69459.0</v>
+      </c>
+      <c r="I44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>72502</v>
-      </c>
-      <c r="J44" s="134">
+        <v>72502.0</v>
+      </c>
+      <c r="J44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>83874</v>
-      </c>
-      <c r="K44" s="134">
+        <v>83874.0</v>
+      </c>
+      <c r="K44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>91738</v>
-      </c>
-      <c r="L44" s="134">
+        <v>91738.0</v>
+      </c>
+      <c r="L44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>97489</v>
-      </c>
-      <c r="M44" s="134">
+        <v>97489.0</v>
+      </c>
+      <c r="M44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>81628</v>
+        <v>81628.0</v>
       </c>
       <c r="O44" s="107"/>
       <c r="P44" s="107"/>
@@ -24097,40 +24107,40 @@
     </row>
     <row r="46" spans="2:36">
       <c r="B46" s="122" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="133">
-        <v>38082</v>
-      </c>
-      <c r="D46" s="133">
-        <v>44567</v>
-      </c>
-      <c r="E46" s="133">
-        <v>43864</v>
-      </c>
-      <c r="F46" s="133">
-        <v>48994</v>
-      </c>
-      <c r="G46" s="133">
-        <v>55566</v>
-      </c>
-      <c r="H46" s="133">
-        <v>59422</v>
-      </c>
-      <c r="I46" s="133">
-        <v>107345</v>
-      </c>
-      <c r="J46" s="133">
-        <v>102931</v>
-      </c>
-      <c r="K46" s="136">
-        <v>105782</v>
-      </c>
-      <c r="L46" s="133">
-        <v>97888</v>
-      </c>
-      <c r="M46" s="133">
-        <v>98240</v>
+        <v>158</v>
+      </c>
+      <c r="C46" s="133" t="n">
+        <v>38082.0</v>
+      </c>
+      <c r="D46" s="133" t="n">
+        <v>44567.0</v>
+      </c>
+      <c r="E46" s="133" t="n">
+        <v>43864.0</v>
+      </c>
+      <c r="F46" s="133" t="n">
+        <v>48994.0</v>
+      </c>
+      <c r="G46" s="133" t="n">
+        <v>55566.0</v>
+      </c>
+      <c r="H46" s="133" t="n">
+        <v>59422.0</v>
+      </c>
+      <c r="I46" s="133" t="n">
+        <v>107345.0</v>
+      </c>
+      <c r="J46" s="133" t="n">
+        <v>102931.0</v>
+      </c>
+      <c r="K46" s="136" t="n">
+        <v>105782.0</v>
+      </c>
+      <c r="L46" s="133" t="n">
+        <v>97888.0</v>
+      </c>
+      <c r="M46" s="133" t="n">
+        <v>98240.0</v>
       </c>
       <c r="Q46" s="107"/>
       <c r="R46" s="107"/>
@@ -24264,45 +24274,45 @@
         <v>57</v>
       </c>
       <c r="C50" s="113"/>
-      <c r="D50" s="126">
+      <c r="D50" s="126" t="n">
         <f t="shared" ref="D50:M50" si="103">D6/D3</f>
         <v>0.10541782018961597</v>
       </c>
-      <c r="E50" s="126">
+      <c r="E50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.12184660123591422</v>
       </c>
-      <c r="F50" s="126">
+      <c r="F50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.10955576432693598</v>
       </c>
-      <c r="G50" s="126">
+      <c r="G50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.10748612762584225</v>
       </c>
-      <c r="H50" s="126">
+      <c r="H50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.26737936468734197</v>
       </c>
-      <c r="I50" s="126">
+      <c r="I50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.12412837144338515</v>
       </c>
-      <c r="J50" s="126">
+      <c r="J50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.11985276569183602</v>
       </c>
-      <c r="K50" s="126">
+      <c r="K50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.10171488161909543</v>
       </c>
-      <c r="L50" s="126">
+      <c r="L50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.12165657086394295</v>
       </c>
-      <c r="M50" s="126">
+      <c r="M50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>4.4224101723669362E-2</v>
+        <v>0.04422410172366936</v>
       </c>
       <c r="O50" s="107"/>
       <c r="P50" s="107"/>
@@ -24332,43 +24342,43 @@
         <v>58</v>
       </c>
       <c r="C51" s="113"/>
-      <c r="D51" s="126">
+      <c r="D51" s="126" t="n">
         <f t="shared" ref="D51:M51" si="104">D9/D3</f>
-        <v>0.33150316284393028</v>
-      </c>
-      <c r="E51" s="126">
+        <v>0.3315031628439303</v>
+      </c>
+      <c r="E51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>0.33330425299890948</v>
-      </c>
-      <c r="F51" s="126">
+        <v>0.3333042529989095</v>
+      </c>
+      <c r="F51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>0.33120386525298617</v>
-      </c>
-      <c r="G51" s="126">
+        <v>0.3312038652529862</v>
+      </c>
+      <c r="G51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>0.32522047166072138</v>
-      </c>
-      <c r="H51" s="126">
+        <v>0.3252204716607214</v>
+      </c>
+      <c r="H51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.32584177163085537</v>
       </c>
-      <c r="I51" s="126">
+      <c r="I51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.31410371718497043</v>
       </c>
-      <c r="J51" s="126">
+      <c r="J51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.31280865047456446</v>
       </c>
-      <c r="K51" s="126">
+      <c r="K51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.29540187710015064</v>
       </c>
-      <c r="L51" s="126">
+      <c r="L51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>0.29746960518967219</v>
-      </c>
-      <c r="M51" s="126">
+        <v>0.2974696051896722</v>
+      </c>
+      <c r="M51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.2294547341200886</v>
       </c>
@@ -24400,43 +24410,43 @@
         <v>59</v>
       </c>
       <c r="C52" s="113"/>
-      <c r="D52" s="126">
+      <c r="D52" s="126" t="n">
         <f t="shared" ref="D52:M52" si="105">D20/D3</f>
-        <v>8.7538858901588384E-2</v>
-      </c>
-      <c r="E52" s="126">
+        <v>0.08753885890158838</v>
+      </c>
+      <c r="E52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>0.13786986550345329</v>
-      </c>
-      <c r="F52" s="126">
+        <v>0.1378698655034533</v>
+      </c>
+      <c r="F52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>0.14505435512011811</v>
-      </c>
-      <c r="G52" s="126">
+        <v>0.1450543551201181</v>
+      </c>
+      <c r="G52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.12517340467697186</v>
       </c>
-      <c r="H52" s="126">
+      <c r="H52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.13197850145244563</v>
       </c>
-      <c r="I52" s="126">
+      <c r="I52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.14880379231168062</v>
       </c>
-      <c r="J52" s="126">
+      <c r="J52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>0.13427328303133779</v>
-      </c>
-      <c r="K52" s="126">
+        <v>0.1342732830313378</v>
+      </c>
+      <c r="K52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.13576146151172222</v>
       </c>
-      <c r="L52" s="126">
+      <c r="L52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.16321690939554065</v>
       </c>
-      <c r="M52" s="126">
+      <c r="M52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.12729458851820435</v>
       </c>
@@ -24550,45 +24560,45 @@
         <v>62</v>
       </c>
       <c r="C55" s="114"/>
-      <c r="D55" s="126">
+      <c r="D55" s="126" t="n">
         <f>D23/D20</f>
-        <v>0.34699646643109539</v>
-      </c>
-      <c r="E55" s="126">
+        <v>0.3469964664310954</v>
+      </c>
+      <c r="E55" s="126" t="n">
         <f t="shared" ref="E55:M55" si="106">E23/E20</f>
         <v>0.23771356253954862</v>
       </c>
-      <c r="F55" s="126">
+      <c r="F55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.22548112509252405</v>
       </c>
-      <c r="G55" s="126">
+      <c r="G55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.25737185830199882</v>
-      </c>
-      <c r="H55" s="126">
+        <v>0.2573718583019988</v>
+      </c>
+      <c r="H55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.25690607734806631</v>
-      </c>
-      <c r="I55" s="126">
+        <v>0.2569060773480663</v>
+      </c>
+      <c r="I55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.23835596956552657</v>
       </c>
-      <c r="J55" s="126">
+      <c r="J55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.25533223954060708</v>
-      </c>
-      <c r="K55" s="126">
+        <v>0.2553322395406071</v>
+      </c>
+      <c r="K55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.29445234708392604</v>
       </c>
-      <c r="L55" s="126">
+      <c r="L55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.23857654242998527</v>
       </c>
-      <c r="M55" s="126">
+      <c r="M55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.30672187358478359</v>
+        <v>0.3067218735847836</v>
       </c>
       <c r="O55" s="107"/>
       <c r="P55" s="107"/>
@@ -24700,45 +24710,45 @@
         <v>64</v>
       </c>
       <c r="C58" s="113"/>
-      <c r="D58" s="112">
+      <c r="D58" s="112" t="n">
         <f>D42/D44</f>
         <v>2.1104430255787534</v>
       </c>
-      <c r="E58" s="112">
+      <c r="E58" s="112" t="n">
         <f t="shared" ref="E58:M58" si="107">E42/E44</f>
         <v>1.9996608125423985</v>
       </c>
-      <c r="F58" s="112">
+      <c r="F58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>2.0859609470525027</v>
       </c>
-      <c r="G58" s="112">
+      <c r="G58" s="112" t="n">
         <f t="shared" si="107"/>
-        <v>2.2132303200769039</v>
-      </c>
-      <c r="H58" s="112">
+        <v>2.213230320076904</v>
+      </c>
+      <c r="H58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.6988871132610606</v>
       </c>
-      <c r="I58" s="112">
+      <c r="I58" s="112" t="n">
         <f t="shared" si="107"/>
-        <v>2.4714076853052331</v>
-      </c>
-      <c r="J58" s="112">
+        <v>2.471407685305233</v>
+      </c>
+      <c r="J58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>2.1405918401411643</v>
       </c>
-      <c r="K58" s="112">
+      <c r="K58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.98533868189845</v>
       </c>
-      <c r="L58" s="112">
+      <c r="L58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.8301141667265024</v>
       </c>
-      <c r="M58" s="112">
+      <c r="M58" s="112" t="n">
         <f t="shared" si="107"/>
-        <v>2.1517984025089429</v>
+        <v>2.151798402508943</v>
       </c>
       <c r="O58" s="107"/>
       <c r="P58" s="107"/>
@@ -24768,45 +24778,45 @@
         <v>65</v>
       </c>
       <c r="C59" s="113"/>
-      <c r="D59" s="112">
+      <c r="D59" s="112" t="n">
         <f>D28/D36</f>
-        <v>0.74423646362098139</v>
-      </c>
-      <c r="E59" s="112">
+        <v>0.7442364636209814</v>
+      </c>
+      <c r="E59" s="112" t="n">
         <f t="shared" ref="E59:M59" si="108">E28/E36</f>
-        <v>0.77719701321079837</v>
-      </c>
-      <c r="F59" s="112">
+        <v>0.7771970132107984</v>
+      </c>
+      <c r="F59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>0.67680712949719446</v>
-      </c>
-      <c r="G59" s="112">
+        <v>0.6768071294971945</v>
+      </c>
+      <c r="G59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>0.75973995820756912</v>
-      </c>
-      <c r="H59" s="112">
+        <v>0.7597399582075691</v>
+      </c>
+      <c r="H59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>0.74310007729732186</v>
-      </c>
-      <c r="I59" s="112">
+        <v>0.7431000772973219</v>
+      </c>
+      <c r="I59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>0.79150816940187663</v>
-      </c>
-      <c r="J59" s="112">
+        <v>0.7915081694018766</v>
+      </c>
+      <c r="J59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>0.83824111976759541</v>
-      </c>
-      <c r="K59" s="112">
+        <v>0.8382411197675954</v>
+      </c>
+      <c r="K59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>0.92863592165578557</v>
-      </c>
-      <c r="L59" s="112">
+        <v>0.9286359216557856</v>
+      </c>
+      <c r="L59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>0.84527054654490941</v>
-      </c>
-      <c r="M59" s="112">
+        <v>0.8452705465449094</v>
+      </c>
+      <c r="M59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>0.78265858643812525</v>
+        <v>0.7826585864381252</v>
       </c>
       <c r="O59" s="107"/>
       <c r="P59" s="107"/>
@@ -24833,45 +24843,45 @@
     </row>
     <row r="60" spans="2:36">
       <c r="B60" s="122" t="s">
-        <v>157</v>
-      </c>
-      <c r="D60" s="112">
+        <v>160</v>
+      </c>
+      <c r="D60" s="112" t="n">
         <f>D46/D9</f>
         <v>2.0792665857982646</v>
       </c>
-      <c r="E60" s="112">
+      <c r="E60" s="112" t="n">
         <f t="shared" ref="E60:M60" si="109">E46/E9</f>
         <v>1.9135366226061161</v>
       </c>
-      <c r="F60" s="112">
+      <c r="F60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>1.9853310641056812</v>
       </c>
-      <c r="G60" s="112">
+      <c r="G60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>2.1162356704878698</v>
       </c>
-      <c r="H60" s="112">
+      <c r="H60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>2.144733992636974</v>
       </c>
-      <c r="I60" s="112">
+      <c r="I60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>3.6161360956712145</v>
       </c>
-      <c r="J60" s="112">
+      <c r="J60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>3.0204530782322907</v>
       </c>
-      <c r="K60" s="112">
+      <c r="K60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>3.4577190860654397</v>
       </c>
-      <c r="L60" s="112">
+      <c r="L60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>2.8274168857052078</v>
       </c>
-      <c r="M60" s="112">
+      <c r="M60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>3.5259493216567366</v>
       </c>
@@ -24956,9 +24966,9 @@
         <v>73</v>
       </c>
       <c r="C63" s="113"/>
-      <c r="D63" s="121">
+      <c r="D63" s="121" t="n">
         <f>(M20/I20)^0.2 - 1</f>
-        <v>1.9082739857263942E-2</v>
+        <v>0.01908273985726394</v>
       </c>
       <c r="O63" s="107"/>
       <c r="P63" s="107"/>
@@ -24988,7 +24998,7 @@
         <v>83</v>
       </c>
       <c r="C64" s="113"/>
-      <c r="D64" s="121">
+      <c r="D64" s="121" t="n">
         <f>(M20/D20)^0.1 - 1</f>
         <v>0.10568362440493972</v>
       </c>
@@ -24998,9 +25008,9 @@
         <v>74</v>
       </c>
       <c r="C65" s="114"/>
-      <c r="D65" s="121">
+      <c r="D65" s="121" t="n">
         <f>(M6/I6)^0.2 - 1</f>
-        <v>-0.14468153045679921</v>
+        <v>-0.1446815304567992</v>
       </c>
     </row>
     <row r="66" spans="2:13">
@@ -25008,9 +25018,9 @@
         <v>84</v>
       </c>
       <c r="C66" s="114"/>
-      <c r="D66" s="121">
+      <c r="D66" s="121" t="n">
         <f>(M6/D6)^0.1 - 1</f>
-        <v>-2.3562454391197973E-2</v>
+        <v>-0.023562454391197973</v>
       </c>
     </row>
     <row r="67" spans="2:13">
@@ -25018,9 +25028,9 @@
         <v>75</v>
       </c>
       <c r="C67" s="114"/>
-      <c r="D67" s="121">
+      <c r="D67" s="121" t="n">
         <f>(M3/I3)^0.2 - 1</f>
-        <v>5.140553170801887E-2</v>
+        <v>0.05140553170801887</v>
       </c>
     </row>
     <row r="68" spans="2:13">
@@ -25028,9 +25038,9 @@
         <v>85</v>
       </c>
       <c r="C68" s="114"/>
-      <c r="D68" s="121">
+      <c r="D68" s="121" t="n">
         <f>(M3/D3)^0.1 - 1</f>
-        <v>6.5049938261403595E-2</v>
+        <v>0.0650499382614036</v>
       </c>
     </row>
     <row r="69" spans="2:13">
@@ -25038,9 +25048,9 @@
         <v>88</v>
       </c>
       <c r="C69" s="114"/>
-      <c r="D69" s="121">
+      <c r="D69" s="121" t="n">
         <f>(M9/I9)^0.2 - 1</f>
-        <v>-1.2595625542054179E-2</v>
+        <v>-0.012595625542054179</v>
       </c>
     </row>
     <row r="70" spans="2:13">
@@ -25048,25 +25058,25 @@
         <v>89</v>
       </c>
       <c r="C70" s="114"/>
-      <c r="D70" s="121">
+      <c r="D70" s="121" t="n">
         <f>(M9/D9)^0.2 - 1</f>
-        <v>5.3857309948096344E-2</v>
+        <v>0.053857309948096344</v>
       </c>
     </row>
     <row r="71" spans="2:13">
       <c r="B71" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D71" s="121">
+      <c r="D71" s="121" t="n">
         <f>(M23/I23)^0.2 - 1</f>
-        <v>7.1798608998944413E-2</v>
+        <v>0.07179860899894441</v>
       </c>
     </row>
     <row r="72" spans="2:13">
       <c r="B72" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D72" s="121">
+      <c r="D72" s="121" t="n">
         <f>AVERAGE(I24:M24)</f>
         <v>0.10523482790922609</v>
       </c>
@@ -25075,9 +25085,9 @@
       <c r="B73" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D73" s="121">
+      <c r="D73" s="121" t="n">
         <f>AVERAGE(I55:M55)</f>
-        <v>0.26668779444096569</v>
+        <v>0.2666877944409657</v>
       </c>
     </row>
     <row r="75" spans="2:13" ht="17.5" thickBot="1">
@@ -25123,43 +25133,43 @@
       <c r="C76" s="110">
         <v>0</v>
       </c>
-      <c r="D76" s="110">
+      <c r="D76" s="110" t="n">
         <f t="shared" ref="D76:M76" si="110">100*D6/D34</f>
-        <v>4.2918400886577297</v>
-      </c>
-      <c r="E76" s="110">
+        <v>4.29184008865773</v>
+      </c>
+      <c r="E76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>5.2642820348523109</v>
-      </c>
-      <c r="F76" s="110">
+        <v>5.264282034852311</v>
+      </c>
+      <c r="F76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>4.9005246917286014</v>
-      </c>
-      <c r="G76" s="110">
+        <v>4.900524691728601</v>
+      </c>
+      <c r="G76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>4.8077562326869803</v>
-      </c>
-      <c r="H76" s="110">
+        <v>4.80775623268698</v>
+      </c>
+      <c r="H76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>12.127791232356424</v>
       </c>
-      <c r="I76" s="110">
+      <c r="I76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>4.6610034805549816</v>
-      </c>
-      <c r="J76" s="110">
+        <v>4.661003480554982</v>
+      </c>
+      <c r="J76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>4.9568360071977953</v>
-      </c>
-      <c r="K76" s="110">
+        <v>4.956836007197795</v>
+      </c>
+      <c r="K76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>3.8463645027367099</v>
-      </c>
-      <c r="L76" s="110">
+        <v>3.84636450273671</v>
+      </c>
+      <c r="L76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>5.1318388575777893</v>
-      </c>
-      <c r="M76" s="110">
+        <v>5.131838857577789</v>
+      </c>
+      <c r="M76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>2.0872607132445826</v>
       </c>
@@ -25171,83 +25181,83 @@
       <c r="C77" s="110">
         <v>0</v>
       </c>
-      <c r="D77" s="110">
+      <c r="D77" s="110" t="n">
         <f t="shared" ref="D77:M77" si="111">100*D6/D44</f>
         <v>13.349524070664733</v>
       </c>
-      <c r="E77" s="110">
+      <c r="E77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>15.791060526117434</v>
       </c>
-      <c r="F77" s="110">
+      <c r="F77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>15.122827818740969</v>
-      </c>
-      <c r="G77" s="110">
+        <v>15.12282781874097</v>
+      </c>
+      <c r="G77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>15.448428098408517</v>
       </c>
-      <c r="H77" s="110">
+      <c r="H77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>32.731539469327231</v>
-      </c>
-      <c r="I77" s="110">
+        <v>32.73153946932723</v>
+      </c>
+      <c r="I77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>16.180243303633002</v>
       </c>
-      <c r="J77" s="110">
+      <c r="J77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>15.567398717123304</v>
       </c>
-      <c r="K77" s="110">
+      <c r="K77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>11.482700734700996</v>
       </c>
-      <c r="L77" s="110">
+      <c r="L77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>14.523689852188452</v>
       </c>
-      <c r="M77" s="110">
+      <c r="M77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>6.5786249816239524</v>
+        <v>6.578624981623952</v>
       </c>
     </row>
     <row r="78" spans="2:13">
       <c r="B78" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="110">
-        <v>0</v>
-      </c>
-      <c r="D78" s="40">
-        <v>8.9899997711181641</v>
-      </c>
-      <c r="E78" s="40">
+      <c r="C78" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D78" s="40" t="n">
+        <v>8.989999771118164</v>
+      </c>
+      <c r="E78" s="40" t="n">
         <v>10.210000038146973</v>
       </c>
-      <c r="F78" s="40">
-        <v>9.5799999237060547</v>
-      </c>
-      <c r="G78" s="40">
-        <v>9.5900001525878906</v>
-      </c>
-      <c r="H78" s="40">
+      <c r="F78" s="40" t="n">
+        <v>9.579999923706055</v>
+      </c>
+      <c r="G78" s="40" t="n">
+        <v>9.59000015258789</v>
+      </c>
+      <c r="H78" s="40" t="n">
         <v>19.969999313354492</v>
       </c>
-      <c r="I78" s="40">
-        <v>9.1499996185302734</v>
-      </c>
-      <c r="J78" s="40">
-        <v>9.0299997329711914</v>
-      </c>
-      <c r="K78" s="40">
-        <v>7.4000000953674316</v>
-      </c>
-      <c r="L78" s="40">
-        <v>8.9700002670288086</v>
-      </c>
-      <c r="M78" s="40">
-        <v>4.1999998092651367</v>
+      <c r="I78" s="40" t="n">
+        <v>9.149999618530273</v>
+      </c>
+      <c r="J78" s="40" t="n">
+        <v>9.029999732971191</v>
+      </c>
+      <c r="K78" s="40" t="n">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="L78" s="40" t="n">
+        <v>8.970000267028809</v>
+      </c>
+      <c r="M78" s="40" t="n">
+        <v>4.199999809265137</v>
       </c>
     </row>
     <row r="80" spans="2:13" ht="17.5" thickBot="1">
@@ -25290,37 +25300,37 @@
       <c r="B81" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="110">
-        <v>0</v>
-      </c>
-      <c r="D81" s="40">
+      <c r="C81" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D81" s="40" t="n">
         <v>21.649999618530273</v>
       </c>
-      <c r="E81" s="40">
+      <c r="E81" s="40" t="n">
         <v>18.239999771118164</v>
       </c>
-      <c r="F81" s="40">
+      <c r="F81" s="40" t="n">
         <v>17.690000534057617</v>
       </c>
-      <c r="G81" s="40">
+      <c r="G81" s="40" t="n">
         <v>20.25</v>
       </c>
-      <c r="H81" s="40">
+      <c r="H81" s="40" t="n">
         <v>19.209999084472656</v>
       </c>
-      <c r="I81" s="40">
-        <v>6.6500000953674316</v>
-      </c>
-      <c r="J81" s="40">
-        <v>16.659999847412109</v>
-      </c>
-      <c r="K81" s="40">
+      <c r="I81" s="40" t="n">
+        <v>6.650000095367432</v>
+      </c>
+      <c r="J81" s="40" t="n">
+        <v>16.65999984741211</v>
+      </c>
+      <c r="K81" s="40" t="n">
         <v>23.5</v>
       </c>
-      <c r="L81" s="40">
-        <v>16.180000305175781</v>
-      </c>
-      <c r="M81" s="40">
+      <c r="L81" s="40" t="n">
+        <v>16.18000030517578</v>
+      </c>
+      <c r="M81" s="40" t="n">
         <v>29.639999389648438</v>
       </c>
     </row>
@@ -25328,46 +25338,46 @@
       <c r="B82" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="C82" s="110">
-        <v>0</v>
-      </c>
-      <c r="D82" s="40">
-        <v>9.0900001525878906</v>
-      </c>
-      <c r="E82" s="40">
-        <v>10.340000152587891</v>
-      </c>
-      <c r="F82" s="40">
-        <v>7.7800002098083496</v>
-      </c>
-      <c r="G82" s="40">
-        <v>9.1800003051757813</v>
-      </c>
-      <c r="H82" s="40">
-        <v>9.0799999237060547</v>
-      </c>
-      <c r="I82" s="40">
-        <v>6.6100001335144043</v>
-      </c>
-      <c r="J82" s="40">
-        <v>8.1999998092651367</v>
-      </c>
-      <c r="K82" s="40">
-        <v>9.3299999237060547</v>
-      </c>
-      <c r="L82" s="40">
-        <v>8.8599996566772461</v>
-      </c>
-      <c r="M82" s="40">
-        <v>5.5900001525878906</v>
+      <c r="C82" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D82" s="40" t="n">
+        <v>9.09000015258789</v>
+      </c>
+      <c r="E82" s="40" t="n">
+        <v>10.34000015258789</v>
+      </c>
+      <c r="F82" s="40" t="n">
+        <v>7.78000020980835</v>
+      </c>
+      <c r="G82" s="40" t="n">
+        <v>9.180000305175781</v>
+      </c>
+      <c r="H82" s="40" t="n">
+        <v>9.079999923706055</v>
+      </c>
+      <c r="I82" s="40" t="n">
+        <v>6.610000133514404</v>
+      </c>
+      <c r="J82" s="40" t="n">
+        <v>8.199999809265137</v>
+      </c>
+      <c r="K82" s="40" t="n">
+        <v>9.329999923706055</v>
+      </c>
+      <c r="L82" s="40" t="n">
+        <v>8.859999656677246</v>
+      </c>
+      <c r="M82" s="40" t="n">
+        <v>5.590000152587891</v>
       </c>
     </row>
     <row r="83" spans="2:13">
       <c r="B83" s="122" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="110">
-        <v>0.72000002861022949</v>
+      <c r="C83" s="110" t="n">
+        <v>0.7200000286102295</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/companies/communications/Comcast/CMCA_Comcast.xlsx
+++ b/target/classes/companies/communications/Comcast/CMCA_Comcast.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D2C41D-A74C-45FB-8ED9-E98810C63079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A449CDF3-4847-49B3-B1C1-32D83E004718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -18693,7 +18693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
@@ -20123,8 +20123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L74"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -21054,45 +21054,42 @@
       <c r="B45" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="21" t="n">
-        <f>L25*(1+C46)</f>
-        <v>28001.309996886142</v>
-      </c>
-      <c r="D45" s="21" t="n">
-        <f>C45*(1+D46)</f>
-        <v>28141.316543741104</v>
-      </c>
-      <c r="E45" s="21" t="n">
-        <f t="shared" ref="E45:L45" si="8">D45*(1+E46)</f>
-        <v>28282.02312331473</v>
+      <c r="C45" s="60" t="n">
+        <v>36929.0</v>
+      </c>
+      <c r="D45" s="60" t="n">
+        <v>38558.0</v>
+      </c>
+      <c r="E45" s="60" t="n">
+        <v>39539.0</v>
       </c>
       <c r="F45" s="21" t="n">
-        <f t="shared" si="8"/>
-        <v>28423.433235770473</v>
+        <f t="shared" ref="E45:L45" si="8">E45*(1+F46)</f>
+        <v>39736.69499558112</v>
       </c>
       <c r="G45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>28565.55039877275</v>
+        <v>39935.37846611803</v>
       </c>
       <c r="H45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>28708.378147574076</v>
+        <v>40135.055353985415</v>
       </c>
       <c r="I45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>28851.92003510352</v>
+        <v>40335.73062626983</v>
       </c>
       <c r="J45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>28996.179632054525</v>
+        <v>40537.40927489323</v>
       </c>
       <c r="K45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>29141.16052697416</v>
+        <v>40740.0963167372</v>
       </c>
       <c r="L45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>29286.866326352254</v>
+        <v>40943.796793767775</v>
       </c>
     </row>
     <row r="46" spans="2:12">
@@ -21434,7 +21431,7 @@
       </c>
       <c r="C69" s="25" t="n">
         <f>L45*C9</f>
-        <v>262703.1987678172</v>
+        <v>367265.8681732705</v>
       </c>
     </row>
     <row r="70" spans="2:12" ht="15" thickBot="1">
@@ -21443,7 +21440,7 @@
       </c>
       <c r="C70" s="23" t="n">
         <f>C69/C55</f>
-        <v>126605.72010571057</v>
+        <v>176998.07207685264</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="15" thickTop="1">
@@ -21456,7 +21453,7 @@
       </c>
       <c r="C72" s="72" t="n">
         <f>SUM(C53:L53)+C70</f>
-        <v>246946.11845502286</v>
+        <v>297338.4704261649</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="15" thickTop="1"/>
@@ -21466,7 +21463,7 @@
       </c>
       <c r="C74" s="70" t="n">
         <f>C72/(C11/1000000)</f>
-        <v>58.70427801127366</v>
+        <v>70.68359827054174</v>
       </c>
     </row>
   </sheetData>
@@ -21562,7 +21559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
